--- a/excercises/excercises/70.ESP.xlsx
+++ b/excercises/excercises/70.ESP.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
-  <workbookPr updateLinks="always" codeName="Workbook_ESP" hidePivotFieldList="1"/>
+  <workbookPr updateLinks="always" codeName="ЭтаКнига" hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rnt\temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olegk\Documents\unifloc_vba\excercises\excercises\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93C8536F-8A2D-4C39-90AA-EDE9667680FE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E02EB192-8DC3-4E93-B830-7012162B962D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" tabRatio="422" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="422" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ESP" sheetId="110" r:id="rId1"/>
@@ -66,7 +66,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -134,9 +133,6 @@
   </si>
   <si>
     <t>Характеристика насоса</t>
-  </si>
-  <si>
-    <t>вязкость</t>
   </si>
   <si>
     <t>Напор, м</t>
@@ -400,22 +396,6 @@
         <family val="2"/>
         <charset val="204"/>
         <scheme val="minor"/>
-      </rPr>
-      <t>ob cal</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>μ</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
       </rPr>
       <t>ob cal</t>
     </r>
@@ -752,6 +732,12 @@
   <si>
     <t>dT/dL</t>
   </si>
+  <si>
+    <t>Вязкость</t>
+  </si>
+  <si>
+    <t>!</t>
+  </si>
 </sst>
 </file>
 
@@ -983,7 +969,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1008,7 +994,6 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1027,9 +1012,6 @@
     </xf>
     <xf numFmtId="1" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1050,6 +1032,18 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1062,13 +1056,11 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1168,7 +1160,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="ru-RU"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1653,7 +1645,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="ru-RU"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1691,7 +1683,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="222348416"/>
@@ -1776,7 +1768,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="ru-RU"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1814,7 +1806,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="222347840"/>
@@ -1880,7 +1872,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="ru-RU"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1918,7 +1910,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="222349568"/>
@@ -1975,7 +1967,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="ru-RU"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2005,7 +1997,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="ru-RU"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2086,7 +2078,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="ru-RU"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2571,7 +2563,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="ru-RU"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2609,7 +2601,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="222352448"/>
@@ -2693,7 +2685,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="ru-RU"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2731,7 +2723,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="222351872"/>
@@ -2796,7 +2788,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="ru-RU"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2834,7 +2826,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="222353600"/>
@@ -2891,7 +2883,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="ru-RU"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2921,7 +2913,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="ru-RU"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3495,7 +3487,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="208757888"/>
@@ -3597,7 +3589,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="208757312"/>
@@ -3669,7 +3661,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="ru-RU"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3699,7 +3691,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="ru-RU"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4167,7 +4159,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="415771456"/>
@@ -4265,7 +4257,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="415770880"/>
@@ -4307,7 +4299,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="ru-RU"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -4337,7 +4329,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="ru-RU"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4680,7 +4672,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="420677888"/>
@@ -4778,7 +4770,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="420677312"/>
@@ -4820,7 +4812,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="ru-RU"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -4850,7 +4842,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="ru-RU"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5977,16 +5969,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>603536</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>74</xdr:row>
-      <xdr:rowOff>139182</xdr:rowOff>
+      <xdr:rowOff>13607</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>62134</xdr:colOff>
-      <xdr:row>105</xdr:row>
-      <xdr:rowOff>22411</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>544284</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>136071</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6015,16 +6007,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>247891</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>1202</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>176896</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>9606</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>324891</xdr:colOff>
-      <xdr:row>105</xdr:row>
-      <xdr:rowOff>55632</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>13607</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>72037</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6053,16 +6045,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>225287</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>394607</xdr:colOff>
       <xdr:row>74</xdr:row>
-      <xdr:rowOff>145273</xdr:rowOff>
+      <xdr:rowOff>11206</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1838</xdr:colOff>
-      <xdr:row>105</xdr:row>
-      <xdr:rowOff>12204</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>401010</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>89647</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6170,6 +6162,18 @@
             <a:rPr lang="ru-RU" sz="1100" baseline="0"/>
             <a:t>1. Какие параметры влияют на перепад давления в насосе?</a:t>
           </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100" baseline="0"/>
+            <a:t>2. Насколько сильно влияет вязкость на напорные характерситики ЭЦН?</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100" baseline="0"/>
+            <a:t>3. Как влияет на работу ЭЦН изменение частоты?</a:t>
+          </a:r>
           <a:endParaRPr lang="ru-RU" sz="1100"/>
         </a:p>
       </xdr:txBody>
@@ -6178,16 +6182,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>61046</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>34437</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>45838</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>160104</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>80497</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>57928</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>340179</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>149678</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6216,16 +6220,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>200940</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>14869</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>503464</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>8807</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>217672</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>24291</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>394608</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>132071</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6872,1582 +6876,1584 @@
   </sheetPr>
   <dimension ref="A1:AK184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B71" sqref="B71"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" outlineLevelRow="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="12.75" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="15.1328125" customWidth="1"/>
-    <col min="3" max="3" width="9.86328125" customWidth="1"/>
-    <col min="4" max="4" width="11.59765625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.265625" customWidth="1"/>
-    <col min="6" max="6" width="9.86328125" customWidth="1"/>
-    <col min="7" max="7" width="13.1328125" customWidth="1"/>
-    <col min="8" max="8" width="12.265625" customWidth="1"/>
-    <col min="9" max="9" width="10.86328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.265625" customWidth="1"/>
-    <col min="11" max="11" width="12.265625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" customWidth="1"/>
+    <col min="9" max="9" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.28515625" customWidth="1"/>
+    <col min="11" max="11" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" t="s">
         <v>33</v>
-      </c>
-      <c r="F1" t="s">
-        <v>34</v>
       </c>
       <c r="G1" t="str">
         <f>[1]!getUFVersion()</f>
         <v>7.7</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" s="12" t="s">
-        <v>36</v>
+    <row r="7" spans="1:7" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="11" t="s">
+        <v>35</v>
       </c>
       <c r="C7" s="2">
         <v>0.87</v>
       </c>
-      <c r="D7" s="13"/>
-      <c r="E7" s="14">
+      <c r="D7" s="12"/>
+      <c r="E7" s="13">
         <f>gamma_oil_*1000</f>
         <v>870</v>
       </c>
-      <c r="F7" s="15" t="s">
+      <c r="F7" s="14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="14" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B8" s="15" t="s">
-        <v>38</v>
       </c>
       <c r="C8" s="2">
         <v>1</v>
       </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="14">
+      <c r="D8" s="12"/>
+      <c r="E8" s="13">
         <f>gamma_wat_*1000</f>
         <v>1000</v>
       </c>
-      <c r="F8" s="15" t="s">
-        <v>37</v>
+      <c r="F8" s="14" t="s">
+        <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B9" s="15" t="s">
-        <v>39</v>
+    <row r="9" spans="1:7" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="14" t="s">
+        <v>38</v>
       </c>
       <c r="C9" s="2">
         <v>0.8</v>
       </c>
-      <c r="D9" s="13"/>
-      <c r="E9" s="14">
+      <c r="D9" s="12"/>
+      <c r="E9" s="13">
         <f>gamma_gas_*1.22</f>
         <v>0.97599999999999998</v>
       </c>
-      <c r="F9" s="15" t="s">
-        <v>37</v>
+      <c r="F9" s="14" t="s">
+        <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B10" s="16" t="s">
-        <v>40</v>
+    <row r="10" spans="1:7" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="15" t="s">
+        <v>39</v>
       </c>
       <c r="C10" s="2">
         <v>80</v>
       </c>
-      <c r="D10" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="E10" s="17">
+      <c r="D10" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="16">
         <f>Rsb_/gamma_oil_</f>
         <v>91.954022988505741</v>
       </c>
-      <c r="F10" s="15" t="s">
+      <c r="F10" s="14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="15" t="s">
         <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B11" s="16" t="s">
-        <v>43</v>
       </c>
       <c r="C11" s="2">
         <v>80</v>
       </c>
-      <c r="D11" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="E11" s="17">
+      <c r="D11" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="16">
         <f>Rsb_/gamma_oil_</f>
         <v>91.954022988505741</v>
       </c>
-      <c r="F11" s="15" t="s">
-        <v>42</v>
+      <c r="F11" s="14" t="s">
+        <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B12" s="15" t="s">
-        <v>44</v>
+    <row r="12" spans="1:7" ht="18" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="14" t="s">
+        <v>43</v>
       </c>
       <c r="C12" s="2">
         <v>120</v>
       </c>
-      <c r="D12" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="E12" s="17">
+      <c r="D12" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="16">
         <f>Pb_*1.01325</f>
         <v>121.59</v>
       </c>
-      <c r="F12" s="13" t="s">
+      <c r="F12" s="12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="18" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="14" t="s">
         <v>46</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B13" s="15" t="s">
-        <v>47</v>
       </c>
       <c r="C13" s="2">
         <v>100</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D13" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="E13" s="17">
+      <c r="E13" s="16">
         <f>Tres_*9/5+32</f>
         <v>212</v>
       </c>
-      <c r="F13" s="13" t="s">
+      <c r="F13" s="12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="15" t="s">
         <v>48</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B14" s="16" t="s">
-        <v>49</v>
       </c>
       <c r="C14" s="2">
         <v>1.2</v>
       </c>
-      <c r="D14" s="15" t="s">
-        <v>41</v>
+      <c r="D14" s="14" t="s">
+        <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B15" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="C15" s="2">
-        <v>1</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>51</v>
-      </c>
+    <row r="15" spans="1:7" ht="15" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="35"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="36"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B16" s="3"/>
       <c r="C16" s="4"/>
     </row>
-    <row r="17" spans="1:4" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="4"/>
     </row>
-    <row r="18" spans="1:4" ht="15" outlineLevel="1" x14ac:dyDescent="0.5">
-      <c r="B18" s="19" t="s">
-        <v>52</v>
+    <row r="18" spans="1:4" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="17" t="s">
+        <v>50</v>
       </c>
       <c r="C18" s="2">
         <v>2000</v>
       </c>
-      <c r="D18" s="20" t="s">
+      <c r="D18" s="18" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15" outlineLevel="1" x14ac:dyDescent="0.5">
-      <c r="B19" s="19" t="s">
-        <v>53</v>
+    <row r="19" spans="1:4" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="17" t="s">
+        <v>51</v>
       </c>
       <c r="C19" s="2">
         <v>0</v>
       </c>
-      <c r="D19" s="20" t="s">
+      <c r="D19" s="18" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15" outlineLevel="1" x14ac:dyDescent="0.5">
-      <c r="B20" s="19" t="s">
-        <v>54</v>
+    <row r="20" spans="1:4" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="17" t="s">
+        <v>52</v>
       </c>
       <c r="C20" s="2">
         <v>1500</v>
       </c>
-      <c r="D20" s="20" t="s">
+      <c r="D20" s="18" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15" outlineLevel="1" x14ac:dyDescent="0.5">
-      <c r="B21" s="19" t="s">
-        <v>55</v>
+    <row r="21" spans="1:4" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="17" t="s">
+        <v>53</v>
       </c>
       <c r="C21" s="2">
         <v>125</v>
       </c>
-      <c r="D21" s="20" t="s">
+      <c r="D21" s="18" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15" outlineLevel="1" x14ac:dyDescent="0.5">
-      <c r="B22" s="19" t="s">
-        <v>56</v>
+    <row r="22" spans="1:4" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="17" t="s">
+        <v>54</v>
       </c>
       <c r="C22" s="2">
         <v>73</v>
       </c>
-      <c r="D22" s="20" t="s">
+      <c r="D22" s="18" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15" outlineLevel="1" x14ac:dyDescent="0.5">
-      <c r="B23" s="19" t="s">
-        <v>57</v>
+    <row r="23" spans="1:4" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="17" t="s">
+        <v>55</v>
       </c>
       <c r="C23" s="2">
         <v>62</v>
       </c>
-      <c r="D23" s="20" t="s">
+      <c r="D23" s="18" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15" outlineLevel="1" x14ac:dyDescent="0.5">
-      <c r="B24" s="19" t="s">
-        <v>58</v>
+    <row r="24" spans="1:4" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="17" t="s">
+        <v>56</v>
       </c>
       <c r="C24" s="2">
         <v>100</v>
       </c>
-      <c r="D24" s="20" t="s">
+      <c r="D24" s="18" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15" outlineLevel="1" x14ac:dyDescent="0.5">
-      <c r="B25" s="19" t="s">
-        <v>59</v>
+    <row r="25" spans="1:4" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="17" t="s">
+        <v>57</v>
       </c>
       <c r="C25" s="2">
         <v>20</v>
       </c>
-      <c r="D25" s="20" t="s">
+      <c r="D25" s="18" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15" outlineLevel="1" x14ac:dyDescent="0.5">
-      <c r="B26" s="19" t="s">
-        <v>60</v>
+    <row r="26" spans="1:4" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="17" t="s">
+        <v>58</v>
       </c>
       <c r="C26" s="2">
         <v>34</v>
       </c>
-      <c r="D26" s="20" t="s">
+      <c r="D26" s="18" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15" outlineLevel="1" x14ac:dyDescent="0.5">
-      <c r="B27" s="19" t="s">
-        <v>61</v>
+    <row r="27" spans="1:4" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="17" t="s">
+        <v>59</v>
       </c>
       <c r="C27" s="2">
         <v>80</v>
       </c>
-      <c r="D27" s="20" t="s">
+      <c r="D27" s="18" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="15" outlineLevel="1" x14ac:dyDescent="0.5">
-      <c r="B28" s="19" t="s">
-        <v>64</v>
+    <row r="28" spans="1:4" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="17" t="s">
+        <v>62</v>
       </c>
       <c r="C28" s="2">
         <v>150</v>
       </c>
-      <c r="D28" s="20" t="s">
+      <c r="D28" s="18" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="15" outlineLevel="1" x14ac:dyDescent="0.5">
-      <c r="B29" s="19" t="s">
-        <v>62</v>
+    <row r="29" spans="1:4" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="17" t="s">
+        <v>60</v>
       </c>
       <c r="C29" s="2">
         <v>70</v>
       </c>
-      <c r="D29" s="20" t="s">
+      <c r="D29" s="18" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="15" outlineLevel="1" x14ac:dyDescent="0.5">
-      <c r="B30" s="19" t="s">
-        <v>63</v>
+    <row r="30" spans="1:4" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="17" t="s">
+        <v>61</v>
       </c>
       <c r="C30" s="2">
         <v>50</v>
       </c>
-      <c r="D30" s="20" t="s">
+      <c r="D30" s="18" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="15" outlineLevel="1" x14ac:dyDescent="0.5">
-      <c r="B31" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="C31" s="33">
+    <row r="31" spans="1:4" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="C31" s="28">
         <v>0</v>
       </c>
-      <c r="D31" s="34" t="s">
-        <v>65</v>
+      <c r="D31" s="29" t="s">
+        <v>63</v>
       </c>
     </row>
-    <row r="33" spans="1:37" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:37" ht="15" outlineLevel="1" x14ac:dyDescent="0.5">
-      <c r="B34" s="20" t="s">
-        <v>70</v>
+    <row r="34" spans="1:37" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="18" t="s">
+        <v>68</v>
       </c>
       <c r="C34" s="2">
         <v>110</v>
       </c>
-      <c r="D34" s="20" t="s">
+      <c r="D34" s="18" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:37" ht="15" outlineLevel="1" x14ac:dyDescent="0.5">
-      <c r="B35" s="20" t="s">
-        <v>71</v>
+    <row r="35" spans="1:37" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="18" t="s">
+        <v>69</v>
       </c>
       <c r="C35" s="2">
         <v>2000</v>
       </c>
-      <c r="D35" s="20" t="s">
+      <c r="D35" s="18" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:37" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="20" t="s">
-        <v>67</v>
+    <row r="36" spans="1:37" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="18" t="s">
+        <v>65</v>
       </c>
       <c r="C36" s="2">
         <v>50</v>
       </c>
-      <c r="D36" s="20" t="s">
+      <c r="D36" s="18" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="1:37" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="C37" s="14">
+    <row r="37" spans="1:37" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="B37" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="C37" s="13">
         <f>[1]!ESP_id_by_rate(Q_ESP_)</f>
         <v>737</v>
       </c>
-      <c r="D37" s="20"/>
-      <c r="G37" s="21" t="s">
-        <v>31</v>
+      <c r="D37" s="18"/>
+      <c r="G37" s="19" t="s">
+        <v>30</v>
       </c>
     </row>
-    <row r="38" spans="1:37" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="C38" s="14" t="str">
+    <row r="38" spans="1:37" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="C38" s="13" t="str">
         <f>[1]!ESP_name(C37)</f>
         <v>ВНН5-125</v>
       </c>
-      <c r="D38" s="20"/>
-      <c r="G38" s="11" t="str">
+      <c r="D38" s="18"/>
+      <c r="G38" s="10" t="str">
         <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,,Rsb_,Rp_,Pb_,Tres_,Bob_,mu,,KsepGasSep_,PKsep,TKsep)</f>
         <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:80,000;rp_m3m3:80,000;pb_atma:120,000;tres_C:100,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,900;pksep_atma:80,000;tksep_C:80,000;</v>
       </c>
-      <c r="H38" s="27"/>
-      <c r="I38" s="27"/>
-      <c r="J38" s="27"/>
-      <c r="K38" s="27"/>
-      <c r="L38" s="27"/>
-      <c r="M38" s="27"/>
-      <c r="N38" s="27"/>
-      <c r="O38" s="27"/>
-      <c r="P38" s="27"/>
-      <c r="Q38" s="27"/>
-      <c r="R38" s="27"/>
-      <c r="S38" s="27"/>
-      <c r="T38" s="27"/>
-      <c r="U38" s="27"/>
-      <c r="V38" s="27"/>
-      <c r="W38" s="27"/>
-      <c r="X38" s="27"/>
-      <c r="Y38" s="27"/>
-      <c r="Z38" s="27"/>
+      <c r="H38" s="25"/>
+      <c r="I38" s="25"/>
+      <c r="J38" s="25"/>
+      <c r="K38" s="25"/>
+      <c r="L38" s="25"/>
+      <c r="M38" s="25"/>
+      <c r="N38" s="25"/>
+      <c r="O38" s="25"/>
+      <c r="P38" s="25"/>
+      <c r="Q38" s="25"/>
+      <c r="R38" s="25"/>
+      <c r="S38" s="25"/>
+      <c r="T38" s="25"/>
+      <c r="U38" s="25"/>
+      <c r="V38" s="25"/>
+      <c r="W38" s="25"/>
+      <c r="X38" s="25"/>
+      <c r="Y38" s="25"/>
+      <c r="Z38" s="25"/>
     </row>
-    <row r="39" spans="1:37" ht="15" outlineLevel="1" x14ac:dyDescent="0.5">
-      <c r="B39" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="C39" s="14">
+    <row r="39" spans="1:37" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="C39" s="13">
         <f>[1]!esp_max_rate_m3day(Freq_,PumpID_)*1</f>
         <v>230</v>
       </c>
-      <c r="D39" s="20"/>
+      <c r="D39" s="18"/>
     </row>
-    <row r="40" spans="1:37" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="20" t="s">
+    <row r="40" spans="1:37" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C40" s="14">
+      <c r="C40" s="13">
         <f>INT(Head_ESP_/[1]!ESP_head_m(Q_ESP_,1,,PumpID_))</f>
         <v>324</v>
       </c>
-      <c r="D40" s="20" t="s">
+      <c r="D40" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="G40" s="21" t="s">
-        <v>32</v>
+      <c r="G40" s="19" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="41" spans="1:37" ht="15" outlineLevel="1" x14ac:dyDescent="0.5">
-      <c r="B41" s="20" t="s">
-        <v>73</v>
+    <row r="41" spans="1:37" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="18" t="s">
+        <v>71</v>
       </c>
       <c r="C41" s="5">
         <v>0.9</v>
       </c>
-      <c r="D41" s="20"/>
-      <c r="G41" s="11" t="str">
+      <c r="D41" s="18"/>
+      <c r="G41" s="10" t="str">
         <f>[1]!ESP_Encode_string(PumpID_,Head_ESP_,Freq_)</f>
         <v>ESP_ID:737,00000;HeadNom_m:2000,00000;ESPfreq_Hz:50,00000;ESP_U_V:1000,00000;MotorPowerNom_kW:30,00000;Tintake_C:85,00000;Tdis_C:85,00000;KsepGS_fr:0,00000;ESP_energy_fact_Whday:0,00000;ESP_cable_type:0;ESP_Hmes_m:0,00000;GasDegtType:0;Kdegr:0,00000;PKV_work_min:-1,00000;PKV_stop_min:-1,00000;</v>
       </c>
-      <c r="H41" s="27"/>
-      <c r="I41" s="27"/>
-      <c r="J41" s="27"/>
-      <c r="K41" s="27"/>
-      <c r="L41" s="27"/>
-      <c r="M41" s="27"/>
-      <c r="N41" s="27"/>
-      <c r="O41" s="27"/>
-      <c r="P41" s="27"/>
-      <c r="Q41" s="27"/>
-      <c r="R41" s="27"/>
-      <c r="S41" s="27"/>
-      <c r="T41" s="27"/>
-      <c r="U41" s="27"/>
-      <c r="V41" s="27"/>
-      <c r="W41" s="27"/>
-      <c r="X41" s="27"/>
-      <c r="Y41" s="27"/>
-      <c r="Z41" s="27"/>
-      <c r="AA41" s="27"/>
-      <c r="AB41" s="27"/>
-      <c r="AC41" s="27"/>
-      <c r="AD41" s="27"/>
-      <c r="AE41" s="27"/>
-      <c r="AF41" s="27"/>
-      <c r="AG41" s="27"/>
-      <c r="AH41" s="27"/>
-      <c r="AI41" s="27"/>
-      <c r="AJ41" s="27"/>
-      <c r="AK41" s="27"/>
+      <c r="H41" s="25"/>
+      <c r="I41" s="25"/>
+      <c r="J41" s="25"/>
+      <c r="K41" s="25"/>
+      <c r="L41" s="25"/>
+      <c r="M41" s="25"/>
+      <c r="N41" s="25"/>
+      <c r="O41" s="25"/>
+      <c r="P41" s="25"/>
+      <c r="Q41" s="25"/>
+      <c r="R41" s="25"/>
+      <c r="S41" s="25"/>
+      <c r="T41" s="25"/>
+      <c r="U41" s="25"/>
+      <c r="V41" s="25"/>
+      <c r="W41" s="25"/>
+      <c r="X41" s="25"/>
+      <c r="Y41" s="25"/>
+      <c r="Z41" s="25"/>
+      <c r="AA41" s="25"/>
+      <c r="AB41" s="25"/>
+      <c r="AC41" s="25"/>
+      <c r="AD41" s="25"/>
+      <c r="AE41" s="25"/>
+      <c r="AF41" s="25"/>
+      <c r="AG41" s="25"/>
+      <c r="AH41" s="25"/>
+      <c r="AI41" s="25"/>
+      <c r="AJ41" s="25"/>
+      <c r="AK41" s="25"/>
     </row>
-    <row r="42" spans="1:37" ht="15" x14ac:dyDescent="0.5">
-      <c r="B42" s="20" t="s">
-        <v>74</v>
+    <row r="42" spans="1:37" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B42" s="18" t="s">
+        <v>72</v>
       </c>
       <c r="C42" s="8">
         <v>80</v>
       </c>
-      <c r="D42" s="20" t="s">
+      <c r="D42" s="18" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:37" ht="15" x14ac:dyDescent="0.5">
-      <c r="B43" s="20" t="s">
-        <v>75</v>
+    <row r="43" spans="1:37" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B43" s="18" t="s">
+        <v>73</v>
       </c>
       <c r="C43" s="8">
         <v>80</v>
       </c>
-      <c r="D43" s="20" t="s">
+      <c r="D43" s="18" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:37" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="46" spans="1:37" ht="15" x14ac:dyDescent="0.5">
-      <c r="B46" s="20" t="s">
-        <v>77</v>
+    <row r="46" spans="1:37" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B46" s="18" t="s">
+        <v>75</v>
       </c>
       <c r="C46" s="2">
         <v>250</v>
       </c>
-      <c r="D46" s="20" t="s">
+      <c r="D46" s="18" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:37" x14ac:dyDescent="0.35">
-      <c r="B47" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="C47" s="25">
+    <row r="47" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="B47" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="C47" s="23">
         <f>[1]!IPR_PI_sm3dayatm(Q_,Pwf_,Pres_,fw_,Pb_)</f>
         <v>0.29284164859002171</v>
       </c>
-      <c r="D47" s="20" t="s">
+      <c r="D47" s="18" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="1:37" x14ac:dyDescent="0.35">
-      <c r="B48" s="20" t="s">
-        <v>78</v>
+    <row r="48" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="B48" s="18" t="s">
+        <v>76</v>
       </c>
       <c r="C48" s="2">
         <v>3</v>
       </c>
-      <c r="D48" s="20" t="s">
+      <c r="D48" s="18" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B49" s="20" t="s">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B49" s="18" t="s">
         <v>11</v>
       </c>
       <c r="C49" s="2">
         <v>20</v>
       </c>
-      <c r="D49" s="20"/>
+      <c r="D49" s="18"/>
     </row>
-    <row r="50" spans="1:12" ht="12.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:12" ht="12.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>26</v>
-      </c>
-      <c r="C50" t="s">
-        <v>20</v>
-      </c>
-      <c r="D50">
+        <v>25</v>
+      </c>
+      <c r="C50" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="D50" s="22">
         <v>1</v>
       </c>
+      <c r="E50" s="26" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>19</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C51" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="D51" s="10">
+      <c r="D51" s="34">
         <f>[1]!MF_gas_fraction_d(Pintake_,Tintake_,fw_,PVTstr)</f>
         <v>0.45130961840612599</v>
       </c>
-      <c r="J51" s="21" t="s">
+      <c r="E51" s="26"/>
+      <c r="J51" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="K51" s="19"/>
+      <c r="L51" s="22">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="G52" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="H52" s="31"/>
+      <c r="I52" s="32"/>
+      <c r="J52" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="K52" s="33"/>
+      <c r="L52" s="33"/>
+    </row>
+    <row r="53" spans="1:12" ht="25.5" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="C53" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="D53" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E53" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="F53" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="G53" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="H53" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="I53" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="J53" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="K53" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="L53" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="K51" s="21"/>
-      <c r="L51" s="24">
-        <v>150</v>
-      </c>
     </row>
-    <row r="52" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="G52" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="H52" s="29"/>
-      <c r="I52" s="30"/>
-      <c r="J52" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="K52" s="31"/>
-      <c r="L52" s="31"/>
-    </row>
-    <row r="53" spans="1:12" ht="25.5" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="C53" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="D53" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="E53" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="F53" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="G53" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="H53" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="I53" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="J53" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="K53" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="L53" s="23" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C54" s="6">
         <v>1</v>
       </c>
-      <c r="D54" s="17">
+      <c r="D54" s="16">
         <f>[1]!ESP_head_m(C54,NumStage_,Freq_,PumpID_,mu)</f>
         <v>2177.7038598350264</v>
       </c>
-      <c r="E54" s="25">
+      <c r="E54" s="23">
         <f>[1]!ESP_eff_fr(C54,NumStage_,Freq_,PumpID_,mu)</f>
         <v>1.02094510249169E-2</v>
       </c>
-      <c r="F54" s="17">
+      <c r="F54" s="16">
         <f>[1]!ESP_Power_W(C54,NumStage_,Freq_,PumpID_,mu)</f>
         <v>34489.160642996467</v>
       </c>
-      <c r="G54" s="25">
+      <c r="G54" s="23">
         <f t="array" ref="G54:H54">[1]!ESP_dP_atm(C54,fw_,Pintake_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,0)</f>
         <v>96.908066829566877</v>
       </c>
-      <c r="H54" s="25">
+      <c r="H54" s="23">
         <v>219</v>
       </c>
-      <c r="I54" s="26">
+      <c r="I54" s="24">
         <f t="shared" ref="I54" si="0">G54+Pintake_</f>
         <v>130.90806682956688</v>
       </c>
-      <c r="J54" s="26">
+      <c r="J54" s="24">
         <f t="array" ref="J54:K54">[1]!ESP_dP_atm(C54,fw_,Pdis_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,Tintake_,0)</f>
         <v>132.0407505887529</v>
       </c>
-      <c r="K54" s="26">
+      <c r="K54" s="24">
         <v>0</v>
       </c>
-      <c r="L54" s="26">
+      <c r="L54" s="24">
         <f t="shared" ref="L54" si="1">Pdis-J54</f>
         <v>17.9592494112471</v>
       </c>
     </row>
-    <row r="55" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C55" s="6">
         <f>B95+Qmax/20</f>
         <v>11.5</v>
       </c>
-      <c r="D55" s="17">
+      <c r="D55" s="16">
         <f>[1]!ESP_head_m(C55,NumStage_,Freq_,PumpID_,mu)</f>
         <v>2155.0796090898484</v>
       </c>
-      <c r="E55" s="25">
+      <c r="E55" s="23">
         <f>[1]!ESP_eff_fr(C55,NumStage_,Freq_,PumpID_,mu)</f>
         <v>7.4948597208333356E-2</v>
       </c>
-      <c r="F55" s="17">
+      <c r="F55" s="16">
         <f>[1]!ESP_Power_W(C55,NumStage_,Freq_,PumpID_,mu)</f>
         <v>35543.191344898885</v>
       </c>
-      <c r="G55" s="25">
+      <c r="G55" s="23">
         <f t="array" ref="G55:H55">[1]!ESP_dP_atm(C55,fw_,Pintake_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,0)</f>
         <v>139.56645170924466</v>
       </c>
-      <c r="H55" s="25">
+      <c r="H55" s="23">
         <v>84.927976066827028</v>
       </c>
-      <c r="I55" s="26">
+      <c r="I55" s="24">
         <f t="shared" ref="I55:I74" si="2">G55+Pintake_</f>
         <v>173.56645170924466</v>
       </c>
-      <c r="J55" s="26">
+      <c r="J55" s="24">
         <f t="array" ref="J55:K55">[1]!ESP_dP_atm(C55,fw_,Pdis_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,Tintake_,0)</f>
         <v>131.44688931623978</v>
       </c>
-      <c r="K55" s="26">
+      <c r="K55" s="24">
         <v>0</v>
       </c>
-      <c r="L55" s="26">
+      <c r="L55" s="24">
         <f t="shared" ref="L55:L74" si="3">Pdis-J55</f>
         <v>18.553110683760224</v>
       </c>
     </row>
-    <row r="56" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C56" s="6">
         <f t="shared" ref="C56:C74" si="4">C55+Qmax/20</f>
         <v>23</v>
       </c>
-      <c r="D56" s="17">
+      <c r="D56" s="16">
         <f>[1]!ESP_head_m(C56,NumStage_,Freq_,PumpID_,mu)</f>
         <v>2153.4436231720601</v>
       </c>
-      <c r="E56" s="25">
+      <c r="E56" s="23">
         <f>[1]!ESP_eff_fr(C56,NumStage_,Freq_,PumpID_,mu)</f>
         <v>0.14770494788119301</v>
       </c>
-      <c r="F56" s="17">
+      <c r="F56" s="16">
         <f>[1]!ESP_Power_W(C56,NumStage_,Freq_,PumpID_,mu)</f>
         <v>36837.222463369806</v>
       </c>
-      <c r="G56" s="25">
+      <c r="G56" s="23">
         <f t="array" ref="G56:H56">[1]!ESP_dP_atm(C56,fw_,Pintake_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,0)</f>
         <v>144.94986496646743</v>
       </c>
-      <c r="H56" s="25">
+      <c r="H56" s="23">
         <v>41.355594768184233</v>
       </c>
-      <c r="I56" s="26">
+      <c r="I56" s="24">
         <f t="shared" si="2"/>
         <v>178.94986496646743</v>
       </c>
-      <c r="J56" s="26">
+      <c r="J56" s="24">
         <f t="array" ref="J56:K56">[1]!ESP_dP_atm(C56,fw_,Pdis_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,Tintake_,0)</f>
         <v>131.7523496657108</v>
       </c>
-      <c r="K56" s="26">
+      <c r="K56" s="24">
         <v>0</v>
       </c>
-      <c r="L56" s="26">
+      <c r="L56" s="24">
         <f t="shared" si="3"/>
         <v>18.247650334289204</v>
       </c>
     </row>
-    <row r="57" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C57" s="6">
         <f t="shared" si="4"/>
         <v>34.5</v>
       </c>
-      <c r="D57" s="17">
+      <c r="D57" s="16">
         <f>[1]!ESP_head_m(C57,NumStage_,Freq_,PumpID_,mu)</f>
         <v>2164.5150132826443</v>
       </c>
-      <c r="E57" s="25">
+      <c r="E57" s="23">
         <f>[1]!ESP_eff_fr(C57,NumStage_,Freq_,PumpID_,mu)</f>
         <v>0.22007074560149578</v>
       </c>
-      <c r="F57" s="17">
+      <c r="F57" s="16">
         <f>[1]!ESP_Power_W(C57,NumStage_,Freq_,PumpID_,mu)</f>
         <v>38177.816369012093</v>
       </c>
-      <c r="G57" s="25">
+      <c r="G57" s="23">
         <f t="array" ref="G57:H57">[1]!ESP_dP_atm(C57,fw_,Pintake_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,0)</f>
         <v>147.70639020218618</v>
       </c>
-      <c r="H57" s="25">
+      <c r="H57" s="23">
         <v>26.077364525930307</v>
       </c>
-      <c r="I57" s="26">
+      <c r="I57" s="24">
         <f t="shared" si="2"/>
         <v>181.70639020218618</v>
       </c>
-      <c r="J57" s="26">
+      <c r="J57" s="24">
         <f t="array" ref="J57:K57">[1]!ESP_dP_atm(C57,fw_,Pdis_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,Tintake_,0)</f>
         <v>131.74913451283913</v>
       </c>
-      <c r="K57" s="26">
+      <c r="K57" s="24">
         <v>0</v>
       </c>
-      <c r="L57" s="26">
+      <c r="L57" s="24">
         <f t="shared" si="3"/>
         <v>18.250865487160866</v>
       </c>
     </row>
-    <row r="58" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C58" s="6">
         <f t="shared" si="4"/>
         <v>46</v>
       </c>
-      <c r="D58" s="17">
+      <c r="D58" s="16">
         <f>[1]!ESP_head_m(C58,NumStage_,Freq_,PumpID_,mu)</f>
         <v>2178.2139599650986</v>
       </c>
-      <c r="E58" s="25">
+      <c r="E58" s="23">
         <f>[1]!ESP_eff_fr(C58,NumStage_,Freq_,PumpID_,mu)</f>
         <v>0.28974697934124621</v>
       </c>
-      <c r="F58" s="17">
+      <c r="F58" s="16">
         <f>[1]!ESP_Power_W(C58,NumStage_,Freq_,PumpID_,mu)</f>
         <v>39502.006083603352</v>
       </c>
-      <c r="G58" s="25">
+      <c r="G58" s="23">
         <f t="array" ref="G58:H58">[1]!ESP_dP_atm(C58,fw_,Pintake_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,0)</f>
         <v>148.79720676631084</v>
       </c>
-      <c r="H58" s="25">
+      <c r="H58" s="23">
         <v>18.246698105554913</v>
       </c>
-      <c r="I58" s="26">
+      <c r="I58" s="24">
         <f t="shared" si="2"/>
         <v>182.79720676631084</v>
       </c>
-      <c r="J58" s="26">
+      <c r="J58" s="24">
         <f t="array" ref="J58:K58">[1]!ESP_dP_atm(C58,fw_,Pdis_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,Tintake_,0)</f>
         <v>130.70894990451819</v>
       </c>
-      <c r="K58" s="26">
+      <c r="K58" s="24">
         <v>0</v>
       </c>
-      <c r="L58" s="26">
+      <c r="L58" s="24">
         <f t="shared" si="3"/>
         <v>19.291050095481808</v>
       </c>
     </row>
-    <row r="59" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C59" s="6">
         <f t="shared" si="4"/>
         <v>57.5</v>
       </c>
-      <c r="D59" s="17">
+      <c r="D59" s="16">
         <f>[1]!ESP_head_m(C59,NumStage_,Freq_,PumpID_,mu)</f>
         <v>2186.1582001833112</v>
       </c>
-      <c r="E59" s="25">
+      <c r="E59" s="23">
         <f>[1]!ESP_eff_fr(C59,NumStage_,Freq_,PumpID_,mu)</f>
         <v>0.35456296862333708</v>
       </c>
-      <c r="F59" s="17">
+      <c r="F59" s="16">
         <f>[1]!ESP_Power_W(C59,NumStage_,Freq_,PumpID_,mu)</f>
         <v>40780.061560281414</v>
       </c>
-      <c r="G59" s="25">
+      <c r="G59" s="23">
         <f t="array" ref="G59:H59">[1]!ESP_dP_atm(C59,fw_,Pintake_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,0)</f>
         <v>147.51142546017371</v>
       </c>
-      <c r="H59" s="25">
+      <c r="H59" s="23">
         <v>13.538565453298418</v>
       </c>
-      <c r="I59" s="26">
+      <c r="I59" s="24">
         <f t="shared" si="2"/>
         <v>181.51142546017371</v>
       </c>
-      <c r="J59" s="26">
+      <c r="J59" s="24">
         <f t="array" ref="J59:K59">[1]!ESP_dP_atm(C59,fw_,Pdis_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,Tintake_,0)</f>
         <v>128.56969779790876</v>
       </c>
-      <c r="K59" s="26">
+      <c r="K59" s="24">
         <v>0</v>
       </c>
-      <c r="L59" s="26">
+      <c r="L59" s="24">
         <f t="shared" si="3"/>
         <v>21.430302202091241</v>
       </c>
     </row>
-    <row r="60" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C60" s="6">
         <f t="shared" si="4"/>
         <v>69</v>
       </c>
-      <c r="D60" s="17">
+      <c r="D60" s="16">
         <f>[1]!ESP_head_m(C60,NumStage_,Freq_,PumpID_,mu)</f>
         <v>2181.5694293950837</v>
       </c>
-      <c r="E60" s="25">
+      <c r="E60" s="23">
         <f>[1]!ESP_eff_fr(C60,NumStage_,Freq_,PumpID_,mu)</f>
         <v>0.41250634910674744</v>
       </c>
-      <c r="F60" s="17">
+      <c r="F60" s="16">
         <f>[1]!ESP_Power_W(C60,NumStage_,Freq_,PumpID_,mu)</f>
         <v>42008.326331975681</v>
       </c>
-      <c r="G60" s="25">
+      <c r="G60" s="23">
         <f t="array" ref="G60:H60">[1]!ESP_dP_atm(C60,fw_,Pintake_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,0)</f>
         <v>142.96256610873161</v>
       </c>
-      <c r="H60" s="25">
+      <c r="H60" s="23">
         <v>10.536075156861472</v>
       </c>
-      <c r="I60" s="26">
+      <c r="I60" s="24">
         <f t="shared" si="2"/>
         <v>176.96256610873161</v>
       </c>
-      <c r="J60" s="26">
+      <c r="J60" s="24">
         <f t="array" ref="J60:K60">[1]!ESP_dP_atm(C60,fw_,Pdis_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,Tintake_,0)</f>
         <v>125.51658266194711</v>
       </c>
-      <c r="K60" s="26">
+      <c r="K60" s="24">
         <v>0</v>
       </c>
-      <c r="L60" s="26">
+      <c r="L60" s="24">
         <f t="shared" si="3"/>
         <v>24.483417338052888</v>
       </c>
     </row>
-    <row r="61" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C61" s="6">
         <f t="shared" si="4"/>
         <v>80.5</v>
       </c>
-      <c r="D61" s="17">
+      <c r="D61" s="16">
         <f>[1]!ESP_head_m(C61,NumStage_,Freq_,PumpID_,mu)</f>
         <v>2159.1797036256626</v>
       </c>
-      <c r="E61" s="25">
+      <c r="E61" s="23">
         <f>[1]!ESP_eff_fr(C61,NumStage_,Freq_,PumpID_,mu)</f>
         <v>0.46175305817174056</v>
       </c>
-      <c r="F61" s="17">
+      <c r="F61" s="16">
         <f>[1]!ESP_Power_W(C61,NumStage_,Freq_,PumpID_,mu)</f>
         <v>43202.054159838532</v>
       </c>
-      <c r="G61" s="25">
+      <c r="G61" s="23">
         <f t="array" ref="G61:H61">[1]!ESP_dP_atm(C61,fw_,Pintake_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,0)</f>
         <v>134.00330042789267</v>
       </c>
-      <c r="H61" s="25">
+      <c r="H61" s="23">
         <v>8.6599310338866928</v>
       </c>
-      <c r="I61" s="26">
+      <c r="I61" s="24">
         <f t="shared" si="2"/>
         <v>168.00330042789267</v>
       </c>
-      <c r="J61" s="26">
+      <c r="J61" s="24">
         <f t="array" ref="J61:K61">[1]!ESP_dP_atm(C61,fw_,Pdis_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,Tintake_,0)</f>
         <v>121.68823850545633</v>
       </c>
-      <c r="K61" s="26">
+      <c r="K61" s="24">
         <v>0</v>
       </c>
-      <c r="L61" s="26">
+      <c r="L61" s="24">
         <f t="shared" si="3"/>
         <v>28.311761494543674</v>
       </c>
     </row>
-    <row r="62" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C62" s="6">
         <f t="shared" si="4"/>
         <v>92</v>
       </c>
-      <c r="D62" s="17">
+      <c r="D62" s="16">
         <f>[1]!ESP_head_m(C62,NumStage_,Freq_,PumpID_,mu)</f>
         <v>2115.1378415412596</v>
       </c>
-      <c r="E62" s="25">
+      <c r="E62" s="23">
         <f>[1]!ESP_eff_fr(C62,NumStage_,Freq_,PumpID_,mu)</f>
         <v>0.5006973205050621</v>
       </c>
-      <c r="F62" s="17">
+      <c r="F62" s="16">
         <f>[1]!ESP_Power_W(C62,NumStage_,Freq_,PumpID_,mu)</f>
         <v>44388.245681676708</v>
       </c>
-      <c r="G62" s="25">
+      <c r="G62" s="23">
         <f t="array" ref="G62:H62">[1]!ESP_dP_atm(C62,fw_,Pintake_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,0)</f>
         <v>118.67819438878178</v>
       </c>
-      <c r="H62" s="25">
+      <c r="H62" s="23">
         <v>7.661861772452184</v>
       </c>
-      <c r="I62" s="26">
+      <c r="I62" s="24">
         <f t="shared" si="2"/>
         <v>152.67819438878178</v>
       </c>
-      <c r="J62" s="26">
+      <c r="J62" s="24">
         <f t="array" ref="J62:K62">[1]!ESP_dP_atm(C62,fw_,Pdis_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,Tintake_,0)</f>
         <v>117.10519379214702</v>
       </c>
-      <c r="K62" s="26">
+      <c r="K62" s="24">
         <v>0</v>
       </c>
-      <c r="L62" s="26">
+      <c r="L62" s="24">
         <f t="shared" si="3"/>
         <v>32.89480620785298</v>
       </c>
     </row>
-    <row r="63" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C63" s="6">
         <f t="shared" si="4"/>
         <v>103.5</v>
       </c>
-      <c r="D63" s="17">
+      <c r="D63" s="16">
         <f>[1]!ESP_head_m(C63,NumStage_,Freq_,PumpID_,mu)</f>
         <v>2046.9158265225844</v>
       </c>
-      <c r="E63" s="25">
+      <c r="E63" s="23">
         <f>[1]!ESP_eff_fr(C63,NumStage_,Freq_,PumpID_,mu)</f>
         <v>0.52798163368513795</v>
       </c>
-      <c r="F63" s="17">
+      <c r="F63" s="16">
         <f>[1]!ESP_Power_W(C63,NumStage_,Freq_,PumpID_,mu)</f>
         <v>45598.485060382707</v>
       </c>
-      <c r="G63" s="25">
+      <c r="G63" s="23">
         <f t="array" ref="G63:H63">[1]!ESP_dP_atm(C63,fw_,Pintake_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,0)</f>
         <v>91.03076059936177</v>
       </c>
-      <c r="H63" s="25">
+      <c r="H63" s="23">
         <v>7.5054642389843025</v>
       </c>
-      <c r="I63" s="26">
+      <c r="I63" s="24">
         <f t="shared" si="2"/>
         <v>125.03076059936177</v>
       </c>
-      <c r="J63" s="26">
+      <c r="J63" s="24">
         <f t="array" ref="J63:K63">[1]!ESP_dP_atm(C63,fw_,Pdis_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,Tintake_,0)</f>
         <v>111.72657218709793</v>
       </c>
-      <c r="K63" s="26">
+      <c r="K63" s="24">
         <v>0</v>
       </c>
-      <c r="L63" s="26">
+      <c r="L63" s="24">
         <f t="shared" si="3"/>
         <v>38.273427812902071</v>
       </c>
     </row>
-    <row r="64" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C64" s="6">
         <f t="shared" si="4"/>
         <v>115</v>
       </c>
-      <c r="D64" s="17">
+      <c r="D64" s="16">
         <f>[1]!ESP_head_m(C64,NumStage_,Freq_,PumpID_,mu)</f>
         <v>1953.2152087383711</v>
       </c>
-      <c r="E64" s="25">
+      <c r="E64" s="23">
         <f>[1]!ESP_eff_fr(C64,NumStage_,Freq_,PumpID_,mu)</f>
         <v>0.54252675376727288</v>
       </c>
-      <c r="F64" s="17">
+      <c r="F64" s="16">
         <f>[1]!ESP_Power_W(C64,NumStage_,Freq_,PumpID_,mu)</f>
         <v>46861.776632366156</v>
       </c>
-      <c r="G64" s="25">
+      <c r="G64" s="23">
         <f t="array" ref="G64:H64">[1]!ESP_dP_atm(C64,fw_,Pintake_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,0)</f>
         <v>0.13566922941531345</v>
       </c>
-      <c r="H64" s="25">
+      <c r="H64" s="23">
         <v>1.2630137812289206</v>
       </c>
-      <c r="I64" s="26">
+      <c r="I64" s="24">
         <f t="shared" si="2"/>
         <v>34.135669229415313</v>
       </c>
-      <c r="J64" s="26">
+      <c r="J64" s="24">
         <f t="array" ref="J64:K64">[1]!ESP_dP_atm(C64,fw_,Pdis_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,Tintake_,0)</f>
         <v>105.41425395817976</v>
       </c>
-      <c r="K64" s="26">
+      <c r="K64" s="24">
         <v>0</v>
       </c>
-      <c r="L64" s="26">
+      <c r="L64" s="24">
         <f t="shared" si="3"/>
         <v>44.585746041820244</v>
       </c>
     </row>
-    <row r="65" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C65" s="6">
         <f t="shared" si="4"/>
         <v>126.5</v>
       </c>
-      <c r="D65" s="17">
+      <c r="D65" s="16">
         <f>[1]!ESP_head_m(C65,NumStage_,Freq_,PumpID_,mu)</f>
         <v>1833.8735072188988</v>
       </c>
-      <c r="E65" s="25">
+      <c r="E65" s="23">
         <f>[1]!ESP_eff_fr(C65,NumStage_,Freq_,PumpID_,mu)</f>
         <v>0.54356168086884704</v>
       </c>
-      <c r="F65" s="17">
+      <c r="F65" s="16">
         <f>[1]!ESP_Power_W(C65,NumStage_,Freq_,PumpID_,mu)</f>
         <v>48197.381555985216</v>
       </c>
-      <c r="G65" s="25">
+      <c r="G65" s="23">
         <f t="array" ref="G65:H65">[1]!ESP_dP_atm(C65,fw_,Pintake_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,0)</f>
         <v>0</v>
       </c>
-      <c r="H65" s="25">
+      <c r="H65" s="23">
         <v>0</v>
       </c>
-      <c r="I65" s="26">
+      <c r="I65" s="24">
         <f t="shared" si="2"/>
         <v>34</v>
       </c>
-      <c r="J65" s="26">
+      <c r="J65" s="24">
         <f t="array" ref="J65:K65">[1]!ESP_dP_atm(C65,fw_,Pdis_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,Tintake_,0)</f>
         <v>97.942821355919563</v>
       </c>
-      <c r="K65" s="26">
+      <c r="K65" s="24">
         <v>0</v>
       </c>
-      <c r="L65" s="26">
+      <c r="L65" s="24">
         <f t="shared" si="3"/>
         <v>52.057178644080437</v>
       </c>
     </row>
-    <row r="66" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C66" s="6">
         <f t="shared" si="4"/>
         <v>138</v>
       </c>
-      <c r="D66" s="17">
+      <c r="D66" s="16">
         <f>[1]!ESP_head_m(C66,NumStage_,Freq_,PumpID_,mu)</f>
         <v>1689.7706119295246</v>
       </c>
-      <c r="E66" s="25">
+      <c r="E66" s="23">
         <f>[1]!ESP_eff_fr(C66,NumStage_,Freq_,PumpID_,mu)</f>
         <v>0.53065364475451593</v>
       </c>
-      <c r="F66" s="17">
+      <c r="F66" s="16">
         <f>[1]!ESP_Power_W(C66,NumStage_,Freq_,PumpID_,mu)</f>
         <v>49607.654459978017</v>
       </c>
-      <c r="G66" s="25">
+      <c r="G66" s="23">
         <f t="array" ref="G66:H66">[1]!ESP_dP_atm(C66,fw_,Pintake_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,0)</f>
         <v>0</v>
       </c>
-      <c r="H66" s="25">
+      <c r="H66" s="23">
         <v>0</v>
       </c>
-      <c r="I66" s="26">
+      <c r="I66" s="24">
         <f t="shared" si="2"/>
         <v>34</v>
       </c>
-      <c r="J66" s="26">
+      <c r="J66" s="24">
         <f t="array" ref="J66:K66">[1]!ESP_dP_atm(C66,fw_,Pdis_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,Tintake_,0)</f>
         <v>88.933136159309186</v>
       </c>
-      <c r="K66" s="26">
+      <c r="K66" s="24">
         <v>0</v>
       </c>
-      <c r="L66" s="26">
+      <c r="L66" s="24">
         <f t="shared" si="3"/>
         <v>61.066863840690814</v>
       </c>
     </row>
-    <row r="67" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C67" s="6">
         <f t="shared" si="4"/>
         <v>149.5</v>
       </c>
-      <c r="D67" s="17">
+      <c r="D67" s="16">
         <f>[1]!ESP_head_m(C67,NumStage_,Freq_,PumpID_,mu)</f>
         <v>1522.7351858442096</v>
       </c>
-      <c r="E67" s="25">
+      <c r="E67" s="23">
         <f>[1]!ESP_eff_fr(C67,NumStage_,Freq_,PumpID_,mu)</f>
         <v>0.50373809042140771</v>
       </c>
-      <c r="F67" s="17">
+      <c r="F67" s="16">
         <f>[1]!ESP_Power_W(C67,NumStage_,Freq_,PumpID_,mu)</f>
         <v>51070.880091893952</v>
       </c>
-      <c r="G67" s="25">
+      <c r="G67" s="23">
         <f t="array" ref="G67:H67">[1]!ESP_dP_atm(C67,fw_,Pintake_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,0)</f>
         <v>0</v>
       </c>
-      <c r="H67" s="25">
+      <c r="H67" s="23">
         <v>0</v>
       </c>
-      <c r="I67" s="26">
+      <c r="I67" s="24">
         <f t="shared" si="2"/>
         <v>34</v>
       </c>
-      <c r="J67" s="26">
+      <c r="J67" s="24">
         <f t="array" ref="J67:K67">[1]!ESP_dP_atm(C67,fw_,Pdis_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,Tintake_,0)</f>
         <v>77.659279518855882</v>
       </c>
-      <c r="K67" s="26">
+      <c r="K67" s="24">
         <v>0</v>
       </c>
-      <c r="L67" s="26">
+      <c r="L67" s="24">
         <f t="shared" si="3"/>
         <v>72.340720481144118</v>
       </c>
     </row>
-    <row r="68" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C68" s="6">
         <f t="shared" si="4"/>
         <v>161</v>
       </c>
-      <c r="D68" s="17">
+      <c r="D68" s="16">
         <f>[1]!ESP_head_m(C68,NumStage_,Freq_,PumpID_,mu)</f>
         <v>1335.4510670190416</v>
       </c>
-      <c r="E68" s="25">
+      <c r="E68" s="23">
         <f>[1]!ESP_eff_fr(C68,NumStage_,Freq_,PumpID_,mu)</f>
         <v>0.46314866368431995</v>
       </c>
-      <c r="F68" s="17">
+      <c r="F68" s="16">
         <f>[1]!ESP_Power_W(C68,NumStage_,Freq_,PumpID_,mu)</f>
         <v>52534.109966525131</v>
       </c>
-      <c r="G68" s="25">
+      <c r="G68" s="23">
         <f t="array" ref="G68:H68">[1]!ESP_dP_atm(C68,fw_,Pintake_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,0)</f>
         <v>0</v>
       </c>
-      <c r="H68" s="25">
+      <c r="H68" s="23">
         <v>0</v>
       </c>
-      <c r="I68" s="26">
+      <c r="I68" s="24">
         <f t="shared" si="2"/>
         <v>34</v>
       </c>
-      <c r="J68" s="26">
+      <c r="J68" s="24">
         <f t="array" ref="J68:K68">[1]!ESP_dP_atm(C68,fw_,Pdis_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,Tintake_,0)</f>
         <v>62.441274255536698</v>
       </c>
-      <c r="K68" s="26">
+      <c r="K68" s="24">
         <v>0</v>
       </c>
-      <c r="L68" s="26">
+      <c r="L68" s="24">
         <f t="shared" si="3"/>
         <v>87.558725744463302</v>
       </c>
     </row>
-    <row r="69" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C69" s="6">
         <f t="shared" si="4"/>
         <v>172.5</v>
       </c>
-      <c r="D69" s="17">
+      <c r="D69" s="16">
         <f>[1]!ESP_head_m(C69,NumStage_,Freq_,PumpID_,mu)</f>
         <v>1131.3636706657694</v>
       </c>
-      <c r="E69" s="25">
+      <c r="E69" s="23">
         <f>[1]!ESP_eff_fr(C69,NumStage_,Freq_,PumpID_,mu)</f>
         <v>0.4096471967609201</v>
       </c>
-      <c r="F69" s="17">
+      <c r="F69" s="16">
         <f>[1]!ESP_Power_W(C69,NumStage_,Freq_,PumpID_,mu)</f>
         <v>53905.999014337751</v>
       </c>
-      <c r="G69" s="25">
+      <c r="G69" s="23">
         <f t="array" ref="G69:H69">[1]!ESP_dP_atm(C69,fw_,Pintake_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,0)</f>
         <v>0</v>
       </c>
-      <c r="H69" s="25">
+      <c r="H69" s="23">
         <v>0</v>
       </c>
-      <c r="I69" s="26">
+      <c r="I69" s="24">
         <f t="shared" si="2"/>
         <v>34</v>
       </c>
-      <c r="J69" s="26">
+      <c r="J69" s="24">
         <f t="array" ref="J69:K69">[1]!ESP_dP_atm(C69,fw_,Pdis_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,Tintake_,0)</f>
         <v>43.041901514917029</v>
       </c>
-      <c r="K69" s="26">
+      <c r="K69" s="24">
         <v>0</v>
       </c>
-      <c r="L69" s="26">
+      <c r="L69" s="24">
         <f t="shared" si="3"/>
         <v>106.95809848508297</v>
       </c>
     </row>
-    <row r="70" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C70" s="6">
         <f t="shared" si="4"/>
         <v>184</v>
       </c>
-      <c r="D70" s="17">
+      <c r="D70" s="16">
         <f>[1]!ESP_head_m(C70,NumStage_,Freq_,PumpID_,mu)</f>
         <v>914.58639122531849</v>
       </c>
-      <c r="E70" s="25">
+      <c r="E70" s="23">
         <f>[1]!ESP_eff_fr(C70,NumStage_,Freq_,PumpID_,mu)</f>
         <v>0.34445369385694047</v>
       </c>
-      <c r="F70" s="17">
+      <c r="F70" s="16">
         <f>[1]!ESP_Power_W(C70,NumStage_,Freq_,PumpID_,mu)</f>
         <v>55049.642229903497</v>
       </c>
-      <c r="G70" s="25">
+      <c r="G70" s="23">
         <f t="array" ref="G70:H70">[1]!ESP_dP_atm(C70,fw_,Pintake_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,0)</f>
         <v>0</v>
       </c>
-      <c r="H70" s="25">
+      <c r="H70" s="23">
         <v>0</v>
       </c>
-      <c r="I70" s="26">
+      <c r="I70" s="24">
         <f t="shared" si="2"/>
         <v>34</v>
       </c>
-      <c r="J70" s="26">
+      <c r="J70" s="24">
         <f t="array" ref="J70:K70">[1]!ESP_dP_atm(C70,fw_,Pdis_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,Tintake_,0)</f>
         <v>23.514199515457818</v>
       </c>
-      <c r="K70" s="26">
+      <c r="K70" s="24">
         <v>0</v>
       </c>
-      <c r="L70" s="26">
+      <c r="L70" s="24">
         <f t="shared" si="3"/>
         <v>126.48580048454218</v>
       </c>
     </row>
-    <row r="71" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C71" s="6">
         <f t="shared" si="4"/>
         <v>195.5</v>
       </c>
-      <c r="D71" s="17">
+      <c r="D71" s="16">
         <f>[1]!ESP_head_m(C71,NumStage_,Freq_,PumpID_,mu)</f>
         <v>689.80700444132776</v>
       </c>
-      <c r="E71" s="25">
+      <c r="E71" s="23">
         <f>[1]!ESP_eff_fr(C71,NumStage_,Freq_,PumpID_,mu)</f>
         <v>0.26927631675138031</v>
       </c>
-      <c r="F71" s="17">
+      <c r="F71" s="16">
         <f>[1]!ESP_Power_W(C71,NumStage_,Freq_,PumpID_,mu)</f>
         <v>55775.411320330881</v>
       </c>
-      <c r="G71" s="25">
+      <c r="G71" s="23">
         <f t="array" ref="G71:H71">[1]!ESP_dP_atm(C71,fw_,Pintake_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,0)</f>
         <v>0</v>
       </c>
-      <c r="H71" s="25">
+      <c r="H71" s="23">
         <v>0</v>
       </c>
-      <c r="I71" s="26">
+      <c r="I71" s="24">
         <f t="shared" si="2"/>
         <v>34</v>
       </c>
-      <c r="J71" s="26">
+      <c r="J71" s="24">
         <f t="array" ref="J71:K71">[1]!ESP_dP_atm(C71,fw_,Pdis_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,Tintake_,0)</f>
         <v>4.5614723875606273</v>
       </c>
-      <c r="K71" s="26">
+      <c r="K71" s="24">
         <v>0</v>
       </c>
-      <c r="L71" s="26">
+      <c r="L71" s="24">
         <f t="shared" si="3"/>
         <v>145.43852761243937</v>
       </c>
     </row>
-    <row r="72" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C72" s="6">
         <f t="shared" si="4"/>
         <v>207</v>
       </c>
-      <c r="D72" s="17">
+      <c r="D72" s="16">
         <f>[1]!ESP_head_m(C72,NumStage_,Freq_,PumpID_,mu)</f>
         <v>462.19406943367369</v>
       </c>
-      <c r="E72" s="25">
+      <c r="E72" s="23">
         <f>[1]!ESP_eff_fr(C72,NumStage_,Freq_,PumpID_,mu)</f>
         <v>0.18634137038169934</v>
       </c>
-      <c r="F72" s="17">
+      <c r="F72" s="16">
         <f>[1]!ESP_Power_W(C72,NumStage_,Freq_,PumpID_,mu)</f>
         <v>55833.791353696841</v>
       </c>
-      <c r="G72" s="25">
+      <c r="G72" s="23">
         <f t="array" ref="G72:H72">[1]!ESP_dP_atm(C72,fw_,Pintake_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,0)</f>
         <v>0</v>
       </c>
-      <c r="H72" s="25">
+      <c r="H72" s="23">
         <v>0</v>
       </c>
-      <c r="I72" s="26">
+      <c r="I72" s="24">
         <f t="shared" si="2"/>
         <v>34</v>
       </c>
-      <c r="J72" s="26">
+      <c r="J72" s="24">
         <f t="array" ref="J72:K72">[1]!ESP_dP_atm(C72,fw_,Pdis_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,Tintake_,0)</f>
         <v>0</v>
       </c>
-      <c r="K72" s="26">
+      <c r="K72" s="24">
         <v>0</v>
       </c>
-      <c r="L72" s="26">
+      <c r="L72" s="24">
         <f t="shared" si="3"/>
         <v>150</v>
       </c>
     </row>
-    <row r="73" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C73" s="6">
         <f t="shared" si="4"/>
         <v>218.5</v>
       </c>
-      <c r="D73" s="17">
+      <c r="D73" s="16">
         <f>[1]!ESP_head_m(C73,NumStage_,Freq_,PumpID_,mu)</f>
         <v>237.30333077199134</v>
       </c>
-      <c r="E73" s="25">
+      <c r="E73" s="23">
         <f>[1]!ESP_eff_fr(C73,NumStage_,Freq_,PumpID_,mu)</f>
         <v>9.8423288429019706E-2</v>
       </c>
-      <c r="F73" s="17">
+      <c r="F73" s="16">
         <f>[1]!ESP_Power_W(C73,NumStage_,Freq_,PumpID_,mu)</f>
         <v>54908.217407477758</v>
       </c>
-      <c r="G73" s="25">
+      <c r="G73" s="23">
         <f t="array" ref="G73:H73">[1]!ESP_dP_atm(C73,fw_,Pintake_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,0)</f>
         <v>0</v>
       </c>
-      <c r="H73" s="25">
+      <c r="H73" s="23">
         <v>0</v>
       </c>
-      <c r="I73" s="26">
+      <c r="I73" s="24">
         <f t="shared" si="2"/>
         <v>34</v>
       </c>
-      <c r="J73" s="26">
+      <c r="J73" s="24">
         <f t="array" ref="J73:K73">[1]!ESP_dP_atm(C73,fw_,Pdis_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,Tintake_,0)</f>
         <v>0</v>
       </c>
-      <c r="K73" s="26">
+      <c r="K73" s="24">
         <v>0</v>
       </c>
-      <c r="L73" s="26">
+      <c r="L73" s="24">
         <f t="shared" si="3"/>
         <v>150</v>
       </c>
     </row>
-    <row r="74" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C74" s="6">
         <f t="shared" si="4"/>
         <v>230</v>
       </c>
-      <c r="D74" s="17">
+      <c r="D74" s="16">
         <f>[1]!ESP_head_m(C74,NumStage_,Freq_,PumpID_,mu)</f>
         <v>20.984120549215934</v>
       </c>
-      <c r="E74" s="25">
+      <c r="E74" s="23">
         <f>[1]!ESP_eff_fr(C74,NumStage_,Freq_,PumpID_,mu)</f>
         <v>8.8746189033200862E-3</v>
       </c>
-      <c r="F74" s="17">
+      <c r="F74" s="16">
         <f>[1]!ESP_Power_W(C74,NumStage_,Freq_,PumpID_,mu)</f>
         <v>52607.911216981076</v>
       </c>
-      <c r="G74" s="25">
+      <c r="G74" s="23">
         <f t="array" ref="G74:H74">[1]!ESP_dP_atm(C74,fw_,Pintake_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,0)</f>
         <v>0</v>
       </c>
-      <c r="H74" s="25">
+      <c r="H74" s="23">
         <v>0</v>
       </c>
-      <c r="I74" s="26">
+      <c r="I74" s="24">
         <f t="shared" si="2"/>
         <v>34</v>
       </c>
-      <c r="J74" s="26">
+      <c r="J74" s="24">
         <f t="array" ref="J74:K74">[1]!ESP_dP_atm(C74,fw_,Pdis_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,Tintake_,0)</f>
         <v>0</v>
       </c>
-      <c r="K74" s="26">
+      <c r="K74" s="24">
         <v>0</v>
       </c>
-      <c r="L74" s="26">
+      <c r="L74" s="24">
         <f t="shared" si="3"/>
         <v>150</v>
       </c>
     </row>
-    <row r="75" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C75" s="4"/>
       <c r="D75" s="4"/>
       <c r="E75" s="9"/>
       <c r="F75" s="9"/>
       <c r="G75" s="9"/>
     </row>
-    <row r="76" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C76" s="4"/>
       <c r="D76" s="4"/>
       <c r="E76" s="9"/>
       <c r="F76" s="9"/>
       <c r="G76" s="9"/>
     </row>
-    <row r="77" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C77" s="4"/>
       <c r="D77" s="4"/>
       <c r="E77" s="9"/>
       <c r="F77" s="9"/>
       <c r="G77" s="9"/>
     </row>
-    <row r="78" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C78" s="4"/>
       <c r="D78" s="4"/>
       <c r="E78" s="9"/>
       <c r="F78" s="9"/>
       <c r="G78" s="9"/>
     </row>
-    <row r="79" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C79" s="4"/>
       <c r="D79" s="4"/>
       <c r="E79" s="9"/>
       <c r="F79" s="9"/>
       <c r="G79" s="9"/>
     </row>
-    <row r="80" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C80" s="4"/>
       <c r="D80" s="4"/>
       <c r="E80" s="9"/>
       <c r="F80" s="9"/>
       <c r="G80" s="9"/>
     </row>
-    <row r="81" spans="3:7" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="3:13" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C81" s="4"/>
       <c r="D81" s="4"/>
       <c r="E81" s="9"/>
       <c r="F81" s="9"/>
       <c r="G81" s="9"/>
     </row>
-    <row r="82" spans="3:7" outlineLevel="1" x14ac:dyDescent="0.35"/>
-    <row r="83" spans="3:7" outlineLevel="1" x14ac:dyDescent="0.35"/>
-    <row r="85" spans="3:7" outlineLevel="1" x14ac:dyDescent="0.35"/>
-    <row r="86" spans="3:7" outlineLevel="1" x14ac:dyDescent="0.35"/>
-    <row r="87" spans="3:7" outlineLevel="1" x14ac:dyDescent="0.35"/>
-    <row r="88" spans="3:7" outlineLevel="1" x14ac:dyDescent="0.35"/>
-    <row r="89" spans="3:7" outlineLevel="1" x14ac:dyDescent="0.35"/>
-    <row r="90" spans="3:7" outlineLevel="1" x14ac:dyDescent="0.35"/>
-    <row r="91" spans="3:7" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="3:13" outlineLevel="1" x14ac:dyDescent="0.2"/>
+    <row r="83" spans="3:13" outlineLevel="1" x14ac:dyDescent="0.2"/>
+    <row r="85" spans="3:13" outlineLevel="1" x14ac:dyDescent="0.2"/>
+    <row r="86" spans="3:13" outlineLevel="1" x14ac:dyDescent="0.2"/>
+    <row r="87" spans="3:13" outlineLevel="1" x14ac:dyDescent="0.2"/>
+    <row r="88" spans="3:13" outlineLevel="1" x14ac:dyDescent="0.2"/>
+    <row r="89" spans="3:13" outlineLevel="1" x14ac:dyDescent="0.2"/>
+    <row r="90" spans="3:13" outlineLevel="1" x14ac:dyDescent="0.2"/>
+    <row r="91" spans="3:13" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="E91" s="4"/>
     </row>
-    <row r="92" spans="3:7" outlineLevel="1" x14ac:dyDescent="0.35"/>
-    <row r="93" spans="3:7" outlineLevel="1" x14ac:dyDescent="0.35"/>
-    <row r="94" spans="3:7" outlineLevel="1" x14ac:dyDescent="0.35"/>
-    <row r="95" spans="3:7" outlineLevel="1" x14ac:dyDescent="0.35"/>
-    <row r="96" spans="3:7" outlineLevel="1" x14ac:dyDescent="0.35"/>
-    <row r="97" outlineLevel="1" x14ac:dyDescent="0.35"/>
-    <row r="98" outlineLevel="1" x14ac:dyDescent="0.35"/>
-    <row r="99" outlineLevel="1" x14ac:dyDescent="0.35"/>
-    <row r="100" outlineLevel="1" x14ac:dyDescent="0.35"/>
-    <row r="101" outlineLevel="1" x14ac:dyDescent="0.35"/>
-    <row r="102" outlineLevel="1" x14ac:dyDescent="0.35"/>
-    <row r="103" outlineLevel="1" x14ac:dyDescent="0.35"/>
-    <row r="104" outlineLevel="1" x14ac:dyDescent="0.35"/>
-    <row r="105" outlineLevel="1" x14ac:dyDescent="0.35"/>
-    <row r="106" outlineLevel="1" x14ac:dyDescent="0.35"/>
-    <row r="107" outlineLevel="1" x14ac:dyDescent="0.35"/>
-    <row r="108" outlineLevel="1" x14ac:dyDescent="0.35"/>
-    <row r="109" outlineLevel="1" x14ac:dyDescent="0.35"/>
-    <row r="110" outlineLevel="1" x14ac:dyDescent="0.35"/>
-    <row r="111" outlineLevel="1" x14ac:dyDescent="0.35"/>
-    <row r="112" outlineLevel="1" x14ac:dyDescent="0.35"/>
-    <row r="113" outlineLevel="1" x14ac:dyDescent="0.35"/>
-    <row r="114" outlineLevel="1" x14ac:dyDescent="0.35"/>
-    <row r="115" outlineLevel="1" x14ac:dyDescent="0.35"/>
-    <row r="116" outlineLevel="1" x14ac:dyDescent="0.35"/>
-    <row r="117" outlineLevel="1" x14ac:dyDescent="0.35"/>
-    <row r="118" outlineLevel="1" x14ac:dyDescent="0.35"/>
-    <row r="173" spans="11:11" x14ac:dyDescent="0.35">
+    <row r="92" spans="3:13" outlineLevel="1" x14ac:dyDescent="0.2"/>
+    <row r="93" spans="3:13" outlineLevel="1" x14ac:dyDescent="0.2"/>
+    <row r="94" spans="3:13" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="M94" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="95" spans="3:13" outlineLevel="1" x14ac:dyDescent="0.2"/>
+    <row r="96" spans="3:13" outlineLevel="1" x14ac:dyDescent="0.2"/>
+    <row r="97" outlineLevel="1" x14ac:dyDescent="0.2"/>
+    <row r="98" outlineLevel="1" x14ac:dyDescent="0.2"/>
+    <row r="99" outlineLevel="1" x14ac:dyDescent="0.2"/>
+    <row r="100" outlineLevel="1" x14ac:dyDescent="0.2"/>
+    <row r="101" outlineLevel="1" x14ac:dyDescent="0.2"/>
+    <row r="102" outlineLevel="1" x14ac:dyDescent="0.2"/>
+    <row r="103" outlineLevel="1" x14ac:dyDescent="0.2"/>
+    <row r="104" outlineLevel="1" x14ac:dyDescent="0.2"/>
+    <row r="105" outlineLevel="1" x14ac:dyDescent="0.2"/>
+    <row r="106" outlineLevel="1" x14ac:dyDescent="0.2"/>
+    <row r="107" outlineLevel="1" x14ac:dyDescent="0.2"/>
+    <row r="108" outlineLevel="1" x14ac:dyDescent="0.2"/>
+    <row r="109" outlineLevel="1" x14ac:dyDescent="0.2"/>
+    <row r="110" outlineLevel="1" x14ac:dyDescent="0.2"/>
+    <row r="111" outlineLevel="1" x14ac:dyDescent="0.2"/>
+    <row r="112" outlineLevel="1" x14ac:dyDescent="0.2"/>
+    <row r="113" outlineLevel="1" x14ac:dyDescent="0.2"/>
+    <row r="114" outlineLevel="1" x14ac:dyDescent="0.2"/>
+    <row r="115" outlineLevel="1" x14ac:dyDescent="0.2"/>
+    <row r="116" outlineLevel="1" x14ac:dyDescent="0.2"/>
+    <row r="117" outlineLevel="1" x14ac:dyDescent="0.2"/>
+    <row r="118" outlineLevel="1" x14ac:dyDescent="0.2"/>
+    <row r="173" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K173" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="184" spans="11:11" x14ac:dyDescent="0.35">
+    <row r="184" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K184" s="7"/>
     </row>
   </sheetData>

--- a/excercises/excercises/70.ESP.xlsx
+++ b/excercises/excercises/70.ESP.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olegk\Documents\unifloc_vba\excercises\excercises\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E02EB192-8DC3-4E93-B830-7012162B962D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAB072B6-6F50-42F8-A4B0-9C8F0CC8597A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="422" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6345" yWindow="3885" windowWidth="18000" windowHeight="9360" tabRatio="422" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ESP" sheetId="110" r:id="rId1"/>
@@ -1044,6 +1044,13 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1054,13 +1061,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -6876,8 +6876,8 @@
   </sheetPr>
   <dimension ref="A1:AK184"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M25" sqref="M25"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
@@ -7049,9 +7049,9 @@
       </c>
     </row>
     <row r="15" spans="1:7" ht="15" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="35"/>
-      <c r="C15" s="36"/>
-      <c r="D15" s="36"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="32"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B16" s="3"/>
@@ -7440,7 +7440,7 @@
       </c>
       <c r="D49" s="18"/>
     </row>
-    <row r="50" spans="1:12" ht="12.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:12" ht="12.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>25</v>
       </c>
@@ -7461,7 +7461,7 @@
       <c r="C51" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="D51" s="34">
+      <c r="D51" s="30">
         <f>[1]!MF_gas_fraction_d(Pintake_,Tintake_,fw_,PVTstr)</f>
         <v>0.45130961840612599</v>
       </c>
@@ -7475,16 +7475,16 @@
       </c>
     </row>
     <row r="52" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="G52" s="30" t="s">
+      <c r="G52" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="H52" s="31"/>
-      <c r="I52" s="32"/>
-      <c r="J52" s="33" t="s">
+      <c r="H52" s="34"/>
+      <c r="I52" s="35"/>
+      <c r="J52" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="K52" s="33"/>
-      <c r="L52" s="33"/>
+      <c r="K52" s="36"/>
+      <c r="L52" s="36"/>
     </row>
     <row r="53" spans="1:12" ht="25.5" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C53" s="20" t="s">

--- a/excercises/excercises/70.ESP.xlsx
+++ b/excercises/excercises/70.ESP.xlsx
@@ -5,12 +5,12 @@
   <workbookPr updateLinks="always" codeName="ЭтаКнига" hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olegk\Documents\unifloc_vba\excercises\excercises\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\rnt\unifloc_vba\excercises\excercises\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAB072B6-6F50-42F8-A4B0-9C8F0CC8597A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F3490EA-BD8D-4028-A0E0-A45CBD094255}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6345" yWindow="3885" windowWidth="18000" windowHeight="9360" tabRatio="422" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9240" yWindow="3660" windowWidth="21930" windowHeight="17160" tabRatio="422" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ESP" sheetId="110" r:id="rId1"/>
@@ -66,6 +66,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -6877,7 +6878,7 @@
   <dimension ref="A1:AK184"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="AB83" sqref="AB83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
@@ -6904,7 +6905,7 @@
       </c>
       <c r="G1" t="str">
         <f>[1]!getUFVersion()</f>
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -7280,7 +7281,7 @@
       <c r="D38" s="18"/>
       <c r="G38" s="10" t="str">
         <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,,Rsb_,Rp_,Pb_,Tres_,Bob_,mu,,KsepGasSep_,PKsep,TKsep)</f>
-        <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:80,000;rp_m3m3:80,000;pb_atma:120,000;tres_C:100,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,900;pksep_atma:80,000;tksep_C:80,000;</v>
+        <v>gamma_gas:0.800;gamma_oil:0.870;gamma_wat:1.000;rsb_m3m3:80.000;rp_m3m3:80.000;pb_atma:120.000;tres_C:100.000;bob_m3m3:1.200;muob_cP:1.000;PVTcorr:0;ksep_fr:0.900;pksep_atma:80.000;tksep_C:80.000;</v>
       </c>
       <c r="H38" s="25"/>
       <c r="I38" s="25"/>
@@ -7337,7 +7338,7 @@
       <c r="D41" s="18"/>
       <c r="G41" s="10" t="str">
         <f>[1]!ESP_Encode_string(PumpID_,Head_ESP_,Freq_)</f>
-        <v>ESP_ID:737,00000;HeadNom_m:2000,00000;ESPfreq_Hz:50,00000;ESP_U_V:1000,00000;MotorPowerNom_kW:30,00000;Tintake_C:85,00000;Tdis_C:85,00000;KsepGS_fr:0,00000;ESP_energy_fact_Whday:0,00000;ESP_cable_type:0;ESP_Hmes_m:0,00000;GasDegtType:0;Kdegr:0,00000;PKV_work_min:-1,00000;PKV_stop_min:-1,00000;</v>
+        <v>ESP_ID:737.00000;HeadNom_m:2000.00000;ESPfreq_Hz:50.00000;ESP_U_V:1000.00000;MotorPowerNom_kW:30.00000;Tintake_C:85.00000;Tdis_C:85.00000;KsepGS_fr:0.00000;ESP_energy_fact_Whday:0.00000;ESP_cable_type:0;ESP_Hmes_m:0.00000;GasDegtType:0;Kdegr:0.00000;PKV_work_min:-1.00000;PKV_stop_min:-1.00000;</v>
       </c>
       <c r="H41" s="25"/>
       <c r="I41" s="25"/>

--- a/excercises/excercises/70.ESP.xlsx
+++ b/excercises/excercises/70.ESP.xlsx
@@ -5,12 +5,12 @@
   <workbookPr updateLinks="always" codeName="ЭтаКнига" hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\rnt\unifloc_vba\excercises\excercises\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rnt\unifloc_vba\excercises\excercises\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F3490EA-BD8D-4028-A0E0-A45CBD094255}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E4FD72C-B93F-4E5F-AB69-7D28964164C1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9240" yWindow="3660" windowWidth="21930" windowHeight="17160" tabRatio="422" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" tabRatio="422" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ESP" sheetId="110" r:id="rId1"/>
@@ -3112,37 +3112,37 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>96.908066829566877</c:v>
+                  <c:v>92.158815415853496</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>139.56645170924466</c:v>
+                  <c:v>144.44822794241153</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>144.94986496646743</c:v>
+                  <c:v>149.2152089137407</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>147.70639020218618</c:v>
+                  <c:v>151.53442935936474</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>148.79720676631084</c:v>
+                  <c:v>151.86480622847776</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>147.51142546017371</c:v>
+                  <c:v>149.12891099264306</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>142.96256610873161</c:v>
+                  <c:v>141.61663407118482</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>134.00330042789267</c:v>
+                  <c:v>125.96224353585833</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>118.67819438878178</c:v>
+                  <c:v>87.634642466785294</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>91.03076059936177</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.13566922941531345</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0</c:v>
@@ -3318,34 +3318,34 @@
                   <c:v>219</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>84.927976066827028</c:v>
+                  <c:v>86.321664999510404</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>41.355594768184233</c:v>
+                  <c:v>41.828433680022485</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>26.077364525930307</c:v>
+                  <c:v>26.323782378181193</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>18.246698105554913</c:v>
+                  <c:v>18.390096268582468</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>13.538565453298418</c:v>
+                  <c:v>13.629339492085819</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10.536075156861472</c:v>
+                  <c:v>10.60684269886778</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.6599310338866928</c:v>
+                  <c:v>8.776136470432661</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.661861772452184</c:v>
+                  <c:v>8.0281717200926863</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7.5054642389843025</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.2630137812289206</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0</c:v>
@@ -3885,37 +3885,37 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>96.908066829566877</c:v>
+                  <c:v>92.158815415853496</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>139.56645170924466</c:v>
+                  <c:v>144.44822794241153</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>144.94986496646743</c:v>
+                  <c:v>149.2152089137407</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>147.70639020218618</c:v>
+                  <c:v>151.53442935936474</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>148.79720676631084</c:v>
+                  <c:v>151.86480622847776</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>147.51142546017371</c:v>
+                  <c:v>149.12891099264306</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>142.96256610873161</c:v>
+                  <c:v>141.61663407118482</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>134.00330042789267</c:v>
+                  <c:v>125.96224353585833</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>118.67819438878178</c:v>
+                  <c:v>87.634642466785294</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>91.03076059936177</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.13566922941531345</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0</c:v>
@@ -4500,58 +4500,58 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>17.9592494112471</c:v>
+                  <c:v>19.63524793883451</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18.553110683760224</c:v>
+                  <c:v>20.101770826480021</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>18.247650334289204</c:v>
+                  <c:v>19.888052109725862</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>18.250865487160866</c:v>
+                  <c:v>20.3849755135154</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>19.291050095481808</c:v>
+                  <c:v>22.102114703471187</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>21.430302202091241</c:v>
+                  <c:v>24.815318212618067</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>24.483417338052888</c:v>
+                  <c:v>28.212675462192436</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>28.311761494543674</c:v>
+                  <c:v>32.105404323559398</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>32.89480620785298</c:v>
+                  <c:v>36.392865979782812</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>38.273427812902071</c:v>
+                  <c:v>41.055850151254191</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44.585746041820244</c:v>
+                  <c:v>46.118936251922833</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>52.057178644080437</c:v>
+                  <c:v>51.677661266006311</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>61.066863840690814</c:v>
+                  <c:v>57.959432061843984</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>72.340720481144118</c:v>
+                  <c:v>65.510471412829901</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>87.558725744463302</c:v>
+                  <c:v>76.037946397137489</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>106.95809848508297</c:v>
+                  <c:v>93.933556515037949</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>126.48580048454218</c:v>
+                  <c:v>113.74678653187701</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>145.43852761243937</c:v>
+                  <c:v>133.40052321462497</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>150</c:v>
@@ -6268,16 +6268,16 @@
       <sheetName val="Info"/>
     </sheetNames>
     <definedNames>
-      <definedName name="ESP_dP_atm"/>
+      <definedName name="ESP_dp_atm"/>
       <definedName name="ESP_eff_fr"/>
-      <definedName name="ESP_Encode_string"/>
+      <definedName name="ESP_encode_string"/>
       <definedName name="ESP_head_m"/>
       <definedName name="ESP_id_by_rate"/>
-      <definedName name="esp_max_rate_m3day"/>
+      <definedName name="ESP_max_rate_m3day"/>
       <definedName name="ESP_name"/>
-      <definedName name="ESP_Power_W"/>
+      <definedName name="ESP_power_W"/>
       <definedName name="getUFVersion"/>
-      <definedName name="IPR_PI_sm3dayatm"/>
+      <definedName name="IPR_pi_sm3dayatm"/>
       <definedName name="MF_gas_fraction_d"/>
       <definedName name="PVT_encode_string"/>
     </definedNames>
@@ -6877,8 +6877,8 @@
   </sheetPr>
   <dimension ref="A1:AK184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AB83" sqref="AB83"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AD27" sqref="AD27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
@@ -6905,7 +6905,7 @@
       </c>
       <c r="G1" t="str">
         <f>[1]!getUFVersion()</f>
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -7281,7 +7281,7 @@
       <c r="D38" s="18"/>
       <c r="G38" s="10" t="str">
         <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,,Rsb_,Rp_,Pb_,Tres_,Bob_,mu,,KsepGasSep_,PKsep,TKsep)</f>
-        <v>gamma_gas:0.800;gamma_oil:0.870;gamma_wat:1.000;rsb_m3m3:80.000;rp_m3m3:80.000;pb_atma:120.000;tres_C:100.000;bob_m3m3:1.200;muob_cP:1.000;PVTcorr:0;ksep_fr:0.900;pksep_atma:80.000;tksep_C:80.000;</v>
+        <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:80,000;rp_m3m3:80,000;pb_atma:120,000;tres_C:100,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,900;pksep_atma:80,000;tksep_C:80,000;</v>
       </c>
       <c r="H38" s="25"/>
       <c r="I38" s="25"/>
@@ -7308,7 +7308,7 @@
         <v>70</v>
       </c>
       <c r="C39" s="13">
-        <f>[1]!esp_max_rate_m3day(Freq_,PumpID_)*1</f>
+        <f>[1]!ESP_max_rate_m3day(Freq_,PumpID_)*1</f>
         <v>230</v>
       </c>
       <c r="D39" s="18"/>
@@ -7337,8 +7337,8 @@
       </c>
       <c r="D41" s="18"/>
       <c r="G41" s="10" t="str">
-        <f>[1]!ESP_Encode_string(PumpID_,Head_ESP_,Freq_)</f>
-        <v>ESP_ID:737.00000;HeadNom_m:2000.00000;ESPfreq_Hz:50.00000;ESP_U_V:1000.00000;MotorPowerNom_kW:30.00000;Tintake_C:85.00000;Tdis_C:85.00000;KsepGS_fr:0.00000;ESP_energy_fact_Whday:0.00000;ESP_cable_type:0;ESP_Hmes_m:0.00000;GasDegtType:0;Kdegr:0.00000;PKV_work_min:-1.00000;PKV_stop_min:-1.00000;</v>
+        <f>[1]!ESP_encode_string(PumpID_,Head_ESP_,Freq_)</f>
+        <v>ESP_ID:737,00000;HeadNom_m:2000,00000;ESPfreq_Hz:50,00000;ESP_U_V:1000,00000;MotorPowerNom_kW:30,00000;t_intake_C:85,00000;t_dis_C:85,00000;KsepGS_fr:0,00000;ESP_energy_fact_Whday:0,00000;ESP_cable_type:0;ESP_Hmes_m:0,00000;ESP_gas_degradation_type:0;c_calibr_head:0,00000;c_calibr_rate:0,00000;c_calibr_power:0,00000;PKV_work_min:-1,00000;PKV_stop_min:-1,00000;</v>
       </c>
       <c r="H41" s="25"/>
       <c r="I41" s="25"/>
@@ -7414,7 +7414,7 @@
         <v>74</v>
       </c>
       <c r="C47" s="23">
-        <f>[1]!IPR_PI_sm3dayatm(Q_,Pwf_,Pres_,fw_,Pb_)</f>
+        <f>[1]!IPR_pi_sm3dayatm(Q_,Pwf_,Pres_,fw_,Pb_)</f>
         <v>0.29284164859002171</v>
       </c>
       <c r="D47" s="18" t="s">
@@ -7464,7 +7464,7 @@
       </c>
       <c r="D51" s="30">
         <f>[1]!MF_gas_fraction_d(Pintake_,Tintake_,fw_,PVTstr)</f>
-        <v>0.45130961840612599</v>
+        <v>0.54220137131326573</v>
       </c>
       <c r="E51" s="26"/>
       <c r="J51" s="19" t="s">
@@ -7532,30 +7532,30 @@
         <v>1.02094510249169E-2</v>
       </c>
       <c r="F54" s="16">
-        <f>[1]!ESP_Power_W(C54,NumStage_,Freq_,PumpID_,mu)</f>
+        <f>[1]!ESP_power_W(C54,NumStage_,Freq_,PumpID_,mu)</f>
         <v>34489.160642996467</v>
       </c>
       <c r="G54" s="23">
-        <f t="array" ref="G54:H54">[1]!ESP_dP_atm(C54,fw_,Pintake_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,0)</f>
-        <v>96.908066829566877</v>
+        <f t="array" ref="G54:H54">[1]!ESP_dp_atm(C54,fw_,Pintake_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,0)</f>
+        <v>92.158815415853496</v>
       </c>
       <c r="H54" s="23">
         <v>219</v>
       </c>
       <c r="I54" s="24">
         <f t="shared" ref="I54" si="0">G54+Pintake_</f>
-        <v>130.90806682956688</v>
+        <v>126.1588154158535</v>
       </c>
       <c r="J54" s="24">
-        <f t="array" ref="J54:K54">[1]!ESP_dP_atm(C54,fw_,Pdis_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,Tintake_,0)</f>
-        <v>132.0407505887529</v>
+        <f t="array" ref="J54:K54">[1]!ESP_dp_atm(C54,fw_,Pdis_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,Tintake_,0)</f>
+        <v>130.36475206116549</v>
       </c>
       <c r="K54" s="24">
         <v>0</v>
       </c>
       <c r="L54" s="24">
         <f t="shared" ref="L54" si="1">Pdis-J54</f>
-        <v>17.9592494112471</v>
+        <v>19.63524793883451</v>
       </c>
     </row>
     <row r="55" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -7572,30 +7572,30 @@
         <v>7.4948597208333356E-2</v>
       </c>
       <c r="F55" s="16">
-        <f>[1]!ESP_Power_W(C55,NumStage_,Freq_,PumpID_,mu)</f>
+        <f>[1]!ESP_power_W(C55,NumStage_,Freq_,PumpID_,mu)</f>
         <v>35543.191344898885</v>
       </c>
       <c r="G55" s="23">
-        <f t="array" ref="G55:H55">[1]!ESP_dP_atm(C55,fw_,Pintake_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,0)</f>
-        <v>139.56645170924466</v>
+        <f t="array" ref="G55:H55">[1]!ESP_dp_atm(C55,fw_,Pintake_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,0)</f>
+        <v>144.44822794241153</v>
       </c>
       <c r="H55" s="23">
-        <v>84.927976066827028</v>
+        <v>86.321664999510404</v>
       </c>
       <c r="I55" s="24">
         <f t="shared" ref="I55:I74" si="2">G55+Pintake_</f>
-        <v>173.56645170924466</v>
+        <v>178.44822794241153</v>
       </c>
       <c r="J55" s="24">
-        <f t="array" ref="J55:K55">[1]!ESP_dP_atm(C55,fw_,Pdis_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,Tintake_,0)</f>
-        <v>131.44688931623978</v>
+        <f t="array" ref="J55:K55">[1]!ESP_dp_atm(C55,fw_,Pdis_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,Tintake_,0)</f>
+        <v>129.89822917351998</v>
       </c>
       <c r="K55" s="24">
         <v>0</v>
       </c>
       <c r="L55" s="24">
         <f t="shared" ref="L55:L74" si="3">Pdis-J55</f>
-        <v>18.553110683760224</v>
+        <v>20.101770826480021</v>
       </c>
     </row>
     <row r="56" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -7612,30 +7612,30 @@
         <v>0.14770494788119301</v>
       </c>
       <c r="F56" s="16">
-        <f>[1]!ESP_Power_W(C56,NumStage_,Freq_,PumpID_,mu)</f>
+        <f>[1]!ESP_power_W(C56,NumStage_,Freq_,PumpID_,mu)</f>
         <v>36837.222463369806</v>
       </c>
       <c r="G56" s="23">
-        <f t="array" ref="G56:H56">[1]!ESP_dP_atm(C56,fw_,Pintake_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,0)</f>
-        <v>144.94986496646743</v>
+        <f t="array" ref="G56:H56">[1]!ESP_dp_atm(C56,fw_,Pintake_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,0)</f>
+        <v>149.2152089137407</v>
       </c>
       <c r="H56" s="23">
-        <v>41.355594768184233</v>
+        <v>41.828433680022485</v>
       </c>
       <c r="I56" s="24">
         <f t="shared" si="2"/>
-        <v>178.94986496646743</v>
+        <v>183.2152089137407</v>
       </c>
       <c r="J56" s="24">
-        <f t="array" ref="J56:K56">[1]!ESP_dP_atm(C56,fw_,Pdis_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,Tintake_,0)</f>
-        <v>131.7523496657108</v>
+        <f t="array" ref="J56:K56">[1]!ESP_dp_atm(C56,fw_,Pdis_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,Tintake_,0)</f>
+        <v>130.11194789027414</v>
       </c>
       <c r="K56" s="24">
         <v>0</v>
       </c>
       <c r="L56" s="24">
         <f t="shared" si="3"/>
-        <v>18.247650334289204</v>
+        <v>19.888052109725862</v>
       </c>
     </row>
     <row r="57" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -7652,30 +7652,30 @@
         <v>0.22007074560149578</v>
       </c>
       <c r="F57" s="16">
-        <f>[1]!ESP_Power_W(C57,NumStage_,Freq_,PumpID_,mu)</f>
+        <f>[1]!ESP_power_W(C57,NumStage_,Freq_,PumpID_,mu)</f>
         <v>38177.816369012093</v>
       </c>
       <c r="G57" s="23">
-        <f t="array" ref="G57:H57">[1]!ESP_dP_atm(C57,fw_,Pintake_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,0)</f>
-        <v>147.70639020218618</v>
+        <f t="array" ref="G57:H57">[1]!ESP_dp_atm(C57,fw_,Pintake_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,0)</f>
+        <v>151.53442935936474</v>
       </c>
       <c r="H57" s="23">
-        <v>26.077364525930307</v>
+        <v>26.323782378181193</v>
       </c>
       <c r="I57" s="24">
         <f t="shared" si="2"/>
-        <v>181.70639020218618</v>
+        <v>185.53442935936474</v>
       </c>
       <c r="J57" s="24">
-        <f t="array" ref="J57:K57">[1]!ESP_dP_atm(C57,fw_,Pdis_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,Tintake_,0)</f>
-        <v>131.74913451283913</v>
+        <f t="array" ref="J57:K57">[1]!ESP_dp_atm(C57,fw_,Pdis_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,Tintake_,0)</f>
+        <v>129.6150244864846</v>
       </c>
       <c r="K57" s="24">
         <v>0</v>
       </c>
       <c r="L57" s="24">
         <f t="shared" si="3"/>
-        <v>18.250865487160866</v>
+        <v>20.3849755135154</v>
       </c>
     </row>
     <row r="58" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -7692,30 +7692,30 @@
         <v>0.28974697934124621</v>
       </c>
       <c r="F58" s="16">
-        <f>[1]!ESP_Power_W(C58,NumStage_,Freq_,PumpID_,mu)</f>
+        <f>[1]!ESP_power_W(C58,NumStage_,Freq_,PumpID_,mu)</f>
         <v>39502.006083603352</v>
       </c>
       <c r="G58" s="23">
-        <f t="array" ref="G58:H58">[1]!ESP_dP_atm(C58,fw_,Pintake_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,0)</f>
-        <v>148.79720676631084</v>
+        <f t="array" ref="G58:H58">[1]!ESP_dp_atm(C58,fw_,Pintake_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,0)</f>
+        <v>151.86480622847776</v>
       </c>
       <c r="H58" s="23">
-        <v>18.246698105554913</v>
+        <v>18.390096268582468</v>
       </c>
       <c r="I58" s="24">
         <f t="shared" si="2"/>
-        <v>182.79720676631084</v>
+        <v>185.86480622847776</v>
       </c>
       <c r="J58" s="24">
-        <f t="array" ref="J58:K58">[1]!ESP_dP_atm(C58,fw_,Pdis_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,Tintake_,0)</f>
-        <v>130.70894990451819</v>
+        <f t="array" ref="J58:K58">[1]!ESP_dp_atm(C58,fw_,Pdis_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,Tintake_,0)</f>
+        <v>127.89788529652881</v>
       </c>
       <c r="K58" s="24">
         <v>0</v>
       </c>
       <c r="L58" s="24">
         <f t="shared" si="3"/>
-        <v>19.291050095481808</v>
+        <v>22.102114703471187</v>
       </c>
     </row>
     <row r="59" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -7732,30 +7732,30 @@
         <v>0.35456296862333708</v>
       </c>
       <c r="F59" s="16">
-        <f>[1]!ESP_Power_W(C59,NumStage_,Freq_,PumpID_,mu)</f>
+        <f>[1]!ESP_power_W(C59,NumStage_,Freq_,PumpID_,mu)</f>
         <v>40780.061560281414</v>
       </c>
       <c r="G59" s="23">
-        <f t="array" ref="G59:H59">[1]!ESP_dP_atm(C59,fw_,Pintake_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,0)</f>
-        <v>147.51142546017371</v>
+        <f t="array" ref="G59:H59">[1]!ESP_dp_atm(C59,fw_,Pintake_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,0)</f>
+        <v>149.12891099264306</v>
       </c>
       <c r="H59" s="23">
-        <v>13.538565453298418</v>
+        <v>13.629339492085819</v>
       </c>
       <c r="I59" s="24">
         <f t="shared" si="2"/>
-        <v>181.51142546017371</v>
+        <v>183.12891099264306</v>
       </c>
       <c r="J59" s="24">
-        <f t="array" ref="J59:K59">[1]!ESP_dP_atm(C59,fw_,Pdis_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,Tintake_,0)</f>
-        <v>128.56969779790876</v>
+        <f t="array" ref="J59:K59">[1]!ESP_dp_atm(C59,fw_,Pdis_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,Tintake_,0)</f>
+        <v>125.18468178738193</v>
       </c>
       <c r="K59" s="24">
         <v>0</v>
       </c>
       <c r="L59" s="24">
         <f t="shared" si="3"/>
-        <v>21.430302202091241</v>
+        <v>24.815318212618067</v>
       </c>
     </row>
     <row r="60" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -7772,30 +7772,30 @@
         <v>0.41250634910674744</v>
       </c>
       <c r="F60" s="16">
-        <f>[1]!ESP_Power_W(C60,NumStage_,Freq_,PumpID_,mu)</f>
+        <f>[1]!ESP_power_W(C60,NumStage_,Freq_,PumpID_,mu)</f>
         <v>42008.326331975681</v>
       </c>
       <c r="G60" s="23">
-        <f t="array" ref="G60:H60">[1]!ESP_dP_atm(C60,fw_,Pintake_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,0)</f>
-        <v>142.96256610873161</v>
+        <f t="array" ref="G60:H60">[1]!ESP_dp_atm(C60,fw_,Pintake_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,0)</f>
+        <v>141.61663407118482</v>
       </c>
       <c r="H60" s="23">
-        <v>10.536075156861472</v>
+        <v>10.60684269886778</v>
       </c>
       <c r="I60" s="24">
         <f t="shared" si="2"/>
-        <v>176.96256610873161</v>
+        <v>175.61663407118482</v>
       </c>
       <c r="J60" s="24">
-        <f t="array" ref="J60:K60">[1]!ESP_dP_atm(C60,fw_,Pdis_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,Tintake_,0)</f>
-        <v>125.51658266194711</v>
+        <f t="array" ref="J60:K60">[1]!ESP_dp_atm(C60,fw_,Pdis_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,Tintake_,0)</f>
+        <v>121.78732453780756</v>
       </c>
       <c r="K60" s="24">
         <v>0</v>
       </c>
       <c r="L60" s="24">
         <f t="shared" si="3"/>
-        <v>24.483417338052888</v>
+        <v>28.212675462192436</v>
       </c>
     </row>
     <row r="61" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -7812,30 +7812,30 @@
         <v>0.46175305817174056</v>
       </c>
       <c r="F61" s="16">
-        <f>[1]!ESP_Power_W(C61,NumStage_,Freq_,PumpID_,mu)</f>
+        <f>[1]!ESP_power_W(C61,NumStage_,Freq_,PumpID_,mu)</f>
         <v>43202.054159838532</v>
       </c>
       <c r="G61" s="23">
-        <f t="array" ref="G61:H61">[1]!ESP_dP_atm(C61,fw_,Pintake_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,0)</f>
-        <v>134.00330042789267</v>
+        <f t="array" ref="G61:H61">[1]!ESP_dp_atm(C61,fw_,Pintake_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,0)</f>
+        <v>125.96224353585833</v>
       </c>
       <c r="H61" s="23">
-        <v>8.6599310338866928</v>
+        <v>8.776136470432661</v>
       </c>
       <c r="I61" s="24">
         <f t="shared" si="2"/>
-        <v>168.00330042789267</v>
+        <v>159.96224353585833</v>
       </c>
       <c r="J61" s="24">
-        <f t="array" ref="J61:K61">[1]!ESP_dP_atm(C61,fw_,Pdis_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,Tintake_,0)</f>
-        <v>121.68823850545633</v>
+        <f t="array" ref="J61:K61">[1]!ESP_dp_atm(C61,fw_,Pdis_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,Tintake_,0)</f>
+        <v>117.8945956764406</v>
       </c>
       <c r="K61" s="24">
         <v>0</v>
       </c>
       <c r="L61" s="24">
         <f t="shared" si="3"/>
-        <v>28.311761494543674</v>
+        <v>32.105404323559398</v>
       </c>
     </row>
     <row r="62" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -7852,30 +7852,30 @@
         <v>0.5006973205050621</v>
       </c>
       <c r="F62" s="16">
-        <f>[1]!ESP_Power_W(C62,NumStage_,Freq_,PumpID_,mu)</f>
+        <f>[1]!ESP_power_W(C62,NumStage_,Freq_,PumpID_,mu)</f>
         <v>44388.245681676708</v>
       </c>
       <c r="G62" s="23">
-        <f t="array" ref="G62:H62">[1]!ESP_dP_atm(C62,fw_,Pintake_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,0)</f>
-        <v>118.67819438878178</v>
+        <f t="array" ref="G62:H62">[1]!ESP_dp_atm(C62,fw_,Pintake_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,0)</f>
+        <v>87.634642466785294</v>
       </c>
       <c r="H62" s="23">
-        <v>7.661861772452184</v>
+        <v>8.0281717200926863</v>
       </c>
       <c r="I62" s="24">
         <f t="shared" si="2"/>
-        <v>152.67819438878178</v>
+        <v>121.63464246678529</v>
       </c>
       <c r="J62" s="24">
-        <f t="array" ref="J62:K62">[1]!ESP_dP_atm(C62,fw_,Pdis_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,Tintake_,0)</f>
-        <v>117.10519379214702</v>
+        <f t="array" ref="J62:K62">[1]!ESP_dp_atm(C62,fw_,Pdis_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,Tintake_,0)</f>
+        <v>113.60713402021719</v>
       </c>
       <c r="K62" s="24">
         <v>0</v>
       </c>
       <c r="L62" s="24">
         <f t="shared" si="3"/>
-        <v>32.89480620785298</v>
+        <v>36.392865979782812</v>
       </c>
     </row>
     <row r="63" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -7892,30 +7892,30 @@
         <v>0.52798163368513795</v>
       </c>
       <c r="F63" s="16">
-        <f>[1]!ESP_Power_W(C63,NumStage_,Freq_,PumpID_,mu)</f>
+        <f>[1]!ESP_power_W(C63,NumStage_,Freq_,PumpID_,mu)</f>
         <v>45598.485060382707</v>
       </c>
       <c r="G63" s="23">
-        <f t="array" ref="G63:H63">[1]!ESP_dP_atm(C63,fw_,Pintake_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,0)</f>
-        <v>91.03076059936177</v>
+        <f t="array" ref="G63:H63">[1]!ESP_dp_atm(C63,fw_,Pintake_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,0)</f>
+        <v>0</v>
       </c>
       <c r="H63" s="23">
-        <v>7.5054642389843025</v>
+        <v>0</v>
       </c>
       <c r="I63" s="24">
         <f t="shared" si="2"/>
-        <v>125.03076059936177</v>
+        <v>34</v>
       </c>
       <c r="J63" s="24">
-        <f t="array" ref="J63:K63">[1]!ESP_dP_atm(C63,fw_,Pdis_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,Tintake_,0)</f>
-        <v>111.72657218709793</v>
+        <f t="array" ref="J63:K63">[1]!ESP_dp_atm(C63,fw_,Pdis_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,Tintake_,0)</f>
+        <v>108.94414984874581</v>
       </c>
       <c r="K63" s="24">
         <v>0</v>
       </c>
       <c r="L63" s="24">
         <f t="shared" si="3"/>
-        <v>38.273427812902071</v>
+        <v>41.055850151254191</v>
       </c>
     </row>
     <row r="64" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -7932,30 +7932,30 @@
         <v>0.54252675376727288</v>
       </c>
       <c r="F64" s="16">
-        <f>[1]!ESP_Power_W(C64,NumStage_,Freq_,PumpID_,mu)</f>
+        <f>[1]!ESP_power_W(C64,NumStage_,Freq_,PumpID_,mu)</f>
         <v>46861.776632366156</v>
       </c>
       <c r="G64" s="23">
-        <f t="array" ref="G64:H64">[1]!ESP_dP_atm(C64,fw_,Pintake_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,0)</f>
-        <v>0.13566922941531345</v>
+        <f t="array" ref="G64:H64">[1]!ESP_dp_atm(C64,fw_,Pintake_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,0)</f>
+        <v>0</v>
       </c>
       <c r="H64" s="23">
-        <v>1.2630137812289206</v>
+        <v>0</v>
       </c>
       <c r="I64" s="24">
         <f t="shared" si="2"/>
-        <v>34.135669229415313</v>
+        <v>34</v>
       </c>
       <c r="J64" s="24">
-        <f t="array" ref="J64:K64">[1]!ESP_dP_atm(C64,fw_,Pdis_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,Tintake_,0)</f>
-        <v>105.41425395817976</v>
+        <f t="array" ref="J64:K64">[1]!ESP_dp_atm(C64,fw_,Pdis_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,Tintake_,0)</f>
+        <v>103.88106374807717</v>
       </c>
       <c r="K64" s="24">
         <v>0</v>
       </c>
       <c r="L64" s="24">
         <f t="shared" si="3"/>
-        <v>44.585746041820244</v>
+        <v>46.118936251922833</v>
       </c>
     </row>
     <row r="65" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -7972,11 +7972,11 @@
         <v>0.54356168086884704</v>
       </c>
       <c r="F65" s="16">
-        <f>[1]!ESP_Power_W(C65,NumStage_,Freq_,PumpID_,mu)</f>
+        <f>[1]!ESP_power_W(C65,NumStage_,Freq_,PumpID_,mu)</f>
         <v>48197.381555985216</v>
       </c>
       <c r="G65" s="23">
-        <f t="array" ref="G65:H65">[1]!ESP_dP_atm(C65,fw_,Pintake_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,0)</f>
+        <f t="array" ref="G65:H65">[1]!ESP_dp_atm(C65,fw_,Pintake_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,0)</f>
         <v>0</v>
       </c>
       <c r="H65" s="23">
@@ -7987,15 +7987,15 @@
         <v>34</v>
       </c>
       <c r="J65" s="24">
-        <f t="array" ref="J65:K65">[1]!ESP_dP_atm(C65,fw_,Pdis_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,Tintake_,0)</f>
-        <v>97.942821355919563</v>
+        <f t="array" ref="J65:K65">[1]!ESP_dp_atm(C65,fw_,Pdis_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,Tintake_,0)</f>
+        <v>98.322338733993689</v>
       </c>
       <c r="K65" s="24">
         <v>0</v>
       </c>
       <c r="L65" s="24">
         <f t="shared" si="3"/>
-        <v>52.057178644080437</v>
+        <v>51.677661266006311</v>
       </c>
     </row>
     <row r="66" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -8012,11 +8012,11 @@
         <v>0.53065364475451593</v>
       </c>
       <c r="F66" s="16">
-        <f>[1]!ESP_Power_W(C66,NumStage_,Freq_,PumpID_,mu)</f>
+        <f>[1]!ESP_power_W(C66,NumStage_,Freq_,PumpID_,mu)</f>
         <v>49607.654459978017</v>
       </c>
       <c r="G66" s="23">
-        <f t="array" ref="G66:H66">[1]!ESP_dP_atm(C66,fw_,Pintake_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,0)</f>
+        <f t="array" ref="G66:H66">[1]!ESP_dp_atm(C66,fw_,Pintake_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,0)</f>
         <v>0</v>
       </c>
       <c r="H66" s="23">
@@ -8027,15 +8027,15 @@
         <v>34</v>
       </c>
       <c r="J66" s="24">
-        <f t="array" ref="J66:K66">[1]!ESP_dP_atm(C66,fw_,Pdis_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,Tintake_,0)</f>
-        <v>88.933136159309186</v>
+        <f t="array" ref="J66:K66">[1]!ESP_dp_atm(C66,fw_,Pdis_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,Tintake_,0)</f>
+        <v>92.040567938156016</v>
       </c>
       <c r="K66" s="24">
         <v>0</v>
       </c>
       <c r="L66" s="24">
         <f t="shared" si="3"/>
-        <v>61.066863840690814</v>
+        <v>57.959432061843984</v>
       </c>
     </row>
     <row r="67" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -8052,11 +8052,11 @@
         <v>0.50373809042140771</v>
       </c>
       <c r="F67" s="16">
-        <f>[1]!ESP_Power_W(C67,NumStage_,Freq_,PumpID_,mu)</f>
+        <f>[1]!ESP_power_W(C67,NumStage_,Freq_,PumpID_,mu)</f>
         <v>51070.880091893952</v>
       </c>
       <c r="G67" s="23">
-        <f t="array" ref="G67:H67">[1]!ESP_dP_atm(C67,fw_,Pintake_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,0)</f>
+        <f t="array" ref="G67:H67">[1]!ESP_dp_atm(C67,fw_,Pintake_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,0)</f>
         <v>0</v>
       </c>
       <c r="H67" s="23">
@@ -8067,15 +8067,15 @@
         <v>34</v>
       </c>
       <c r="J67" s="24">
-        <f t="array" ref="J67:K67">[1]!ESP_dP_atm(C67,fw_,Pdis_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,Tintake_,0)</f>
-        <v>77.659279518855882</v>
+        <f t="array" ref="J67:K67">[1]!ESP_dp_atm(C67,fw_,Pdis_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,Tintake_,0)</f>
+        <v>84.489528587170099</v>
       </c>
       <c r="K67" s="24">
         <v>0</v>
       </c>
       <c r="L67" s="24">
         <f t="shared" si="3"/>
-        <v>72.340720481144118</v>
+        <v>65.510471412829901</v>
       </c>
     </row>
     <row r="68" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -8092,11 +8092,11 @@
         <v>0.46314866368431995</v>
       </c>
       <c r="F68" s="16">
-        <f>[1]!ESP_Power_W(C68,NumStage_,Freq_,PumpID_,mu)</f>
+        <f>[1]!ESP_power_W(C68,NumStage_,Freq_,PumpID_,mu)</f>
         <v>52534.109966525131</v>
       </c>
       <c r="G68" s="23">
-        <f t="array" ref="G68:H68">[1]!ESP_dP_atm(C68,fw_,Pintake_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,0)</f>
+        <f t="array" ref="G68:H68">[1]!ESP_dp_atm(C68,fw_,Pintake_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,0)</f>
         <v>0</v>
       </c>
       <c r="H68" s="23">
@@ -8107,15 +8107,15 @@
         <v>34</v>
       </c>
       <c r="J68" s="24">
-        <f t="array" ref="J68:K68">[1]!ESP_dP_atm(C68,fw_,Pdis_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,Tintake_,0)</f>
-        <v>62.441274255536698</v>
+        <f t="array" ref="J68:K68">[1]!ESP_dp_atm(C68,fw_,Pdis_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,Tintake_,0)</f>
+        <v>73.962053602862511</v>
       </c>
       <c r="K68" s="24">
         <v>0</v>
       </c>
       <c r="L68" s="24">
         <f t="shared" si="3"/>
-        <v>87.558725744463302</v>
+        <v>76.037946397137489</v>
       </c>
     </row>
     <row r="69" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -8132,11 +8132,11 @@
         <v>0.4096471967609201</v>
       </c>
       <c r="F69" s="16">
-        <f>[1]!ESP_Power_W(C69,NumStage_,Freq_,PumpID_,mu)</f>
+        <f>[1]!ESP_power_W(C69,NumStage_,Freq_,PumpID_,mu)</f>
         <v>53905.999014337751</v>
       </c>
       <c r="G69" s="23">
-        <f t="array" ref="G69:H69">[1]!ESP_dP_atm(C69,fw_,Pintake_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,0)</f>
+        <f t="array" ref="G69:H69">[1]!ESP_dp_atm(C69,fw_,Pintake_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,0)</f>
         <v>0</v>
       </c>
       <c r="H69" s="23">
@@ -8147,15 +8147,15 @@
         <v>34</v>
       </c>
       <c r="J69" s="24">
-        <f t="array" ref="J69:K69">[1]!ESP_dP_atm(C69,fw_,Pdis_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,Tintake_,0)</f>
-        <v>43.041901514917029</v>
+        <f t="array" ref="J69:K69">[1]!ESP_dp_atm(C69,fw_,Pdis_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,Tintake_,0)</f>
+        <v>56.066443484962051</v>
       </c>
       <c r="K69" s="24">
         <v>0</v>
       </c>
       <c r="L69" s="24">
         <f t="shared" si="3"/>
-        <v>106.95809848508297</v>
+        <v>93.933556515037949</v>
       </c>
     </row>
     <row r="70" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -8172,11 +8172,11 @@
         <v>0.34445369385694047</v>
       </c>
       <c r="F70" s="16">
-        <f>[1]!ESP_Power_W(C70,NumStage_,Freq_,PumpID_,mu)</f>
+        <f>[1]!ESP_power_W(C70,NumStage_,Freq_,PumpID_,mu)</f>
         <v>55049.642229903497</v>
       </c>
       <c r="G70" s="23">
-        <f t="array" ref="G70:H70">[1]!ESP_dP_atm(C70,fw_,Pintake_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,0)</f>
+        <f t="array" ref="G70:H70">[1]!ESP_dp_atm(C70,fw_,Pintake_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,0)</f>
         <v>0</v>
       </c>
       <c r="H70" s="23">
@@ -8187,15 +8187,15 @@
         <v>34</v>
       </c>
       <c r="J70" s="24">
-        <f t="array" ref="J70:K70">[1]!ESP_dP_atm(C70,fw_,Pdis_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,Tintake_,0)</f>
-        <v>23.514199515457818</v>
+        <f t="array" ref="J70:K70">[1]!ESP_dp_atm(C70,fw_,Pdis_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,Tintake_,0)</f>
+        <v>36.253213468122993</v>
       </c>
       <c r="K70" s="24">
         <v>0</v>
       </c>
       <c r="L70" s="24">
         <f t="shared" si="3"/>
-        <v>126.48580048454218</v>
+        <v>113.74678653187701</v>
       </c>
     </row>
     <row r="71" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -8212,11 +8212,11 @@
         <v>0.26927631675138031</v>
       </c>
       <c r="F71" s="16">
-        <f>[1]!ESP_Power_W(C71,NumStage_,Freq_,PumpID_,mu)</f>
+        <f>[1]!ESP_power_W(C71,NumStage_,Freq_,PumpID_,mu)</f>
         <v>55775.411320330881</v>
       </c>
       <c r="G71" s="23">
-        <f t="array" ref="G71:H71">[1]!ESP_dP_atm(C71,fw_,Pintake_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,0)</f>
+        <f t="array" ref="G71:H71">[1]!ESP_dp_atm(C71,fw_,Pintake_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,0)</f>
         <v>0</v>
       </c>
       <c r="H71" s="23">
@@ -8227,15 +8227,15 @@
         <v>34</v>
       </c>
       <c r="J71" s="24">
-        <f t="array" ref="J71:K71">[1]!ESP_dP_atm(C71,fw_,Pdis_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,Tintake_,0)</f>
-        <v>4.5614723875606273</v>
+        <f t="array" ref="J71:K71">[1]!ESP_dp_atm(C71,fw_,Pdis_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,Tintake_,0)</f>
+        <v>16.599476785375032</v>
       </c>
       <c r="K71" s="24">
         <v>0</v>
       </c>
       <c r="L71" s="24">
         <f t="shared" si="3"/>
-        <v>145.43852761243937</v>
+        <v>133.40052321462497</v>
       </c>
     </row>
     <row r="72" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -8252,11 +8252,11 @@
         <v>0.18634137038169934</v>
       </c>
       <c r="F72" s="16">
-        <f>[1]!ESP_Power_W(C72,NumStage_,Freq_,PumpID_,mu)</f>
+        <f>[1]!ESP_power_W(C72,NumStage_,Freq_,PumpID_,mu)</f>
         <v>55833.791353696841</v>
       </c>
       <c r="G72" s="23">
-        <f t="array" ref="G72:H72">[1]!ESP_dP_atm(C72,fw_,Pintake_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,0)</f>
+        <f t="array" ref="G72:H72">[1]!ESP_dp_atm(C72,fw_,Pintake_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,0)</f>
         <v>0</v>
       </c>
       <c r="H72" s="23">
@@ -8267,7 +8267,7 @@
         <v>34</v>
       </c>
       <c r="J72" s="24">
-        <f t="array" ref="J72:K72">[1]!ESP_dP_atm(C72,fw_,Pdis_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,Tintake_,0)</f>
+        <f t="array" ref="J72:K72">[1]!ESP_dp_atm(C72,fw_,Pdis_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,Tintake_,0)</f>
         <v>0</v>
       </c>
       <c r="K72" s="24">
@@ -8292,11 +8292,11 @@
         <v>9.8423288429019706E-2</v>
       </c>
       <c r="F73" s="16">
-        <f>[1]!ESP_Power_W(C73,NumStage_,Freq_,PumpID_,mu)</f>
+        <f>[1]!ESP_power_W(C73,NumStage_,Freq_,PumpID_,mu)</f>
         <v>54908.217407477758</v>
       </c>
       <c r="G73" s="23">
-        <f t="array" ref="G73:H73">[1]!ESP_dP_atm(C73,fw_,Pintake_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,0)</f>
+        <f t="array" ref="G73:H73">[1]!ESP_dp_atm(C73,fw_,Pintake_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,0)</f>
         <v>0</v>
       </c>
       <c r="H73" s="23">
@@ -8307,7 +8307,7 @@
         <v>34</v>
       </c>
       <c r="J73" s="24">
-        <f t="array" ref="J73:K73">[1]!ESP_dP_atm(C73,fw_,Pdis_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,Tintake_,0)</f>
+        <f t="array" ref="J73:K73">[1]!ESP_dp_atm(C73,fw_,Pdis_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,Tintake_,0)</f>
         <v>0</v>
       </c>
       <c r="K73" s="24">
@@ -8332,11 +8332,11 @@
         <v>8.8746189033200862E-3</v>
       </c>
       <c r="F74" s="16">
-        <f>[1]!ESP_Power_W(C74,NumStage_,Freq_,PumpID_,mu)</f>
+        <f>[1]!ESP_power_W(C74,NumStage_,Freq_,PumpID_,mu)</f>
         <v>52607.911216981076</v>
       </c>
       <c r="G74" s="23">
-        <f t="array" ref="G74:H74">[1]!ESP_dP_atm(C74,fw_,Pintake_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,0)</f>
+        <f t="array" ref="G74:H74">[1]!ESP_dp_atm(C74,fw_,Pintake_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,0)</f>
         <v>0</v>
       </c>
       <c r="H74" s="23">
@@ -8347,7 +8347,7 @@
         <v>34</v>
       </c>
       <c r="J74" s="24">
-        <f t="array" ref="J74:K74">[1]!ESP_dP_atm(C74,fw_,Pdis_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,Tintake_,0)</f>
+        <f t="array" ref="J74:K74">[1]!ESP_dp_atm(C74,fw_,Pdis_,NumStage_,Freq_,PumpID_,PVTstr,Tintake_,Tintake_,0)</f>
         <v>0</v>
       </c>
       <c r="K74" s="24">

--- a/excercises/excercises/70.ESP.xlsx
+++ b/excercises/excercises/70.ESP.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
   <workbookPr updateLinks="always" codeName="ЭтаКнига" hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rnt\unifloc_vba\excercises\excercises\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E4FD72C-B93F-4E5F-AB69-7D28964164C1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB83ADBB-872E-4BE0-A949-A2CC9350A5C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" tabRatio="422" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14160" tabRatio="422" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ESP" sheetId="110" r:id="rId1"/>
@@ -6877,7 +6877,7 @@
   </sheetPr>
   <dimension ref="A1:AK184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="AD27" sqref="AD27"/>
     </sheetView>
   </sheetViews>
@@ -6905,7 +6905,7 @@
       </c>
       <c r="G1" t="str">
         <f>[1]!getUFVersion()</f>
-        <v>7.9</v>
+        <v>7.10</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -7281,7 +7281,7 @@
       <c r="D38" s="18"/>
       <c r="G38" s="10" t="str">
         <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,,Rsb_,Rp_,Pb_,Tres_,Bob_,mu,,KsepGasSep_,PKsep,TKsep)</f>
-        <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:80,000;rp_m3m3:80,000;pb_atma:120,000;tres_C:100,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,900;pksep_atma:80,000;tksep_C:80,000;</v>
+        <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:80,000;rp_m3m3:80,000;pb_atma:120,000;t_res_C:100,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,900;p_ksep_atma:80,000;t_ksep_C:80,000;gas_only:False;</v>
       </c>
       <c r="H38" s="25"/>
       <c r="I38" s="25"/>
@@ -7338,7 +7338,7 @@
       <c r="D41" s="18"/>
       <c r="G41" s="10" t="str">
         <f>[1]!ESP_encode_string(PumpID_,Head_ESP_,Freq_)</f>
-        <v>ESP_ID:737,00000;HeadNom_m:2000,00000;ESPfreq_Hz:50,00000;ESP_U_V:1000,00000;MotorPowerNom_kW:30,00000;t_intake_C:85,00000;t_dis_C:85,00000;KsepGS_fr:0,00000;ESP_energy_fact_Whday:0,00000;ESP_cable_type:0;ESP_Hmes_m:0,00000;ESP_gas_degradation_type:0;c_calibr_head:0,00000;c_calibr_rate:0,00000;c_calibr_power:0,00000;PKV_work_min:-1,00000;PKV_stop_min:-1,00000;</v>
+        <v>ESP_ID:737,00000;HeadNom_m:2000,00000;ESPfreq_Hz:50,00000;ESP_U_V:1000,00000;MotorPowerNom_kW:30,00000;t_intake_C:85,00000;t_dis_C:85,00000;KsepGS_fr:0,00000;ESP_energy_fact_Whday:0,00000;ESP_cable_type:0;ESP_h_mes_m:0,00000;ESP_gas_degradation_type:0;c_calibr_head:0,00000;c_calibr_rate:0,00000;c_calibr_power:0,00000;PKV_work_min:-1,00000;PKV_stop_min:-1,00000;</v>
       </c>
       <c r="H41" s="25"/>
       <c r="I41" s="25"/>
